--- a/anlysis/2022-05-16回测-50.xlsx
+++ b/anlysis/2022-05-16回测-50.xlsx
@@ -40,304 +40,304 @@
     <t>证券代码</t>
   </si>
   <si>
-    <t>000001.SZ</t>
-  </si>
-  <si>
-    <t>600714.SH</t>
-  </si>
-  <si>
-    <t>600712.SH</t>
-  </si>
-  <si>
-    <t>600711.SH</t>
-  </si>
-  <si>
-    <t>600710.SH</t>
-  </si>
-  <si>
-    <t>600708.SH</t>
-  </si>
-  <si>
-    <t>600707.SH</t>
-  </si>
-  <si>
-    <t>600706.SH</t>
-  </si>
-  <si>
-    <t>600705.SH</t>
-  </si>
-  <si>
-    <t>600704.SH</t>
-  </si>
-  <si>
-    <t>600703.SH</t>
-  </si>
-  <si>
-    <t>600702.SH</t>
-  </si>
-  <si>
-    <t>600699.SH</t>
-  </si>
-  <si>
-    <t>600698.SH</t>
-  </si>
-  <si>
-    <t>600697.SH</t>
-  </si>
-  <si>
-    <t>600696.SH</t>
-  </si>
-  <si>
-    <t>600695.SH</t>
-  </si>
-  <si>
-    <t>600713.SH</t>
-  </si>
-  <si>
-    <t>600715.SH</t>
-  </si>
-  <si>
-    <t>600693.SH</t>
-  </si>
-  <si>
-    <t>600716.SH</t>
-  </si>
-  <si>
-    <t>600732.SH</t>
-  </si>
-  <si>
-    <t>600731.SH</t>
-  </si>
-  <si>
-    <t>600730.SH</t>
-  </si>
-  <si>
-    <t>600729.SH</t>
-  </si>
-  <si>
-    <t>600728.SH</t>
-  </si>
-  <si>
-    <t>600727.SH</t>
-  </si>
-  <si>
-    <t>600726.SH</t>
-  </si>
-  <si>
-    <t>600725.SH</t>
-  </si>
-  <si>
-    <t>600724.SH</t>
-  </si>
-  <si>
-    <t>600722.SH</t>
-  </si>
-  <si>
-    <t>600721.SH</t>
-  </si>
-  <si>
-    <t>600720.SH</t>
-  </si>
-  <si>
-    <t>600719.SH</t>
-  </si>
-  <si>
-    <t>600718.SH</t>
-  </si>
-  <si>
-    <t>600717.SH</t>
-  </si>
-  <si>
-    <t>600694.SH</t>
-  </si>
-  <si>
-    <t>600692.SH</t>
-  </si>
-  <si>
-    <t>600469.SH</t>
-  </si>
-  <si>
-    <t>600667.SH</t>
-  </si>
-  <si>
-    <t>600665.SH</t>
-  </si>
-  <si>
-    <t>600664.SH</t>
-  </si>
-  <si>
-    <t>600663.SH</t>
-  </si>
-  <si>
-    <t>600662.SH</t>
-  </si>
-  <si>
-    <t>600661.SH</t>
-  </si>
-  <si>
-    <t>600660.SH</t>
-  </si>
-  <si>
-    <t>600658.SH</t>
-  </si>
-  <si>
-    <t>600657.SH</t>
-  </si>
-  <si>
-    <t>600655.SH</t>
-  </si>
-  <si>
-    <t>600654.SH</t>
-  </si>
-  <si>
-    <t>平安银行</t>
-  </si>
-  <si>
-    <t>金瑞矿业</t>
-  </si>
-  <si>
-    <t>南宁百货</t>
-  </si>
-  <si>
-    <t>盛屯矿业</t>
-  </si>
-  <si>
-    <t>苏美达</t>
-  </si>
-  <si>
-    <t>光明地产</t>
-  </si>
-  <si>
-    <t>彩虹股份</t>
-  </si>
-  <si>
-    <t>曲江文旅</t>
-  </si>
-  <si>
-    <t>中航产融</t>
-  </si>
-  <si>
-    <t>物产中大</t>
-  </si>
-  <si>
-    <t>三安光电</t>
-  </si>
-  <si>
-    <t>舍得酒业</t>
-  </si>
-  <si>
-    <t>均胜电子</t>
-  </si>
-  <si>
-    <t>湖南天雁</t>
-  </si>
-  <si>
-    <t>欧亚集团</t>
-  </si>
-  <si>
-    <t>岩石股份</t>
-  </si>
-  <si>
-    <t>退市绿庭</t>
-  </si>
-  <si>
-    <t>南京医药</t>
-  </si>
-  <si>
-    <t>文投控股</t>
-  </si>
-  <si>
-    <t>东百集团</t>
-  </si>
-  <si>
-    <t>凤凰股份</t>
-  </si>
-  <si>
-    <t>爱旭股份</t>
-  </si>
-  <si>
-    <t>湖南海利</t>
-  </si>
-  <si>
-    <t>中国高科</t>
-  </si>
-  <si>
-    <t>重庆百货</t>
-  </si>
-  <si>
-    <t>佳都科技</t>
-  </si>
-  <si>
-    <t>鲁北化工</t>
-  </si>
-  <si>
-    <t>*ST华源</t>
-  </si>
-  <si>
-    <t>云维股份</t>
-  </si>
-  <si>
-    <t>宁波富达</t>
-  </si>
-  <si>
-    <t>金牛化工</t>
-  </si>
-  <si>
-    <t>百花村</t>
-  </si>
-  <si>
-    <t>祁连山</t>
-  </si>
-  <si>
-    <t>ST热电</t>
-  </si>
-  <si>
-    <t>东软集团</t>
-  </si>
-  <si>
-    <t>天津港</t>
-  </si>
-  <si>
-    <t>大商股份</t>
-  </si>
-  <si>
-    <t>亚通股份</t>
-  </si>
-  <si>
-    <t>风神股份</t>
-  </si>
-  <si>
-    <t>太极实业</t>
-  </si>
-  <si>
-    <t>天地源</t>
-  </si>
-  <si>
-    <t>哈药股份</t>
-  </si>
-  <si>
-    <t>陆家嘴</t>
-  </si>
-  <si>
-    <t>外服控股</t>
-  </si>
-  <si>
-    <t>昂立教育</t>
-  </si>
-  <si>
-    <t>福耀玻璃</t>
-  </si>
-  <si>
-    <t>电子城</t>
-  </si>
-  <si>
-    <t>信达地产</t>
-  </si>
-  <si>
-    <t>豫园股份</t>
-  </si>
-  <si>
-    <t>*ST中安</t>
+    <t>000004.SZ</t>
+  </si>
+  <si>
+    <t>600814.SH</t>
+  </si>
+  <si>
+    <t>600792.SH</t>
+  </si>
+  <si>
+    <t>600794.SH</t>
+  </si>
+  <si>
+    <t>600796.SH</t>
+  </si>
+  <si>
+    <t>600797.SH</t>
+  </si>
+  <si>
+    <t>600798.SH</t>
+  </si>
+  <si>
+    <t>600800.SH</t>
+  </si>
+  <si>
+    <t>600801.SH</t>
+  </si>
+  <si>
+    <t>600802.SH</t>
+  </si>
+  <si>
+    <t>600805.SH</t>
+  </si>
+  <si>
+    <t>600808.SH</t>
+  </si>
+  <si>
+    <t>600809.SH</t>
+  </si>
+  <si>
+    <t>600811.SH</t>
+  </si>
+  <si>
+    <t>600815.SH</t>
+  </si>
+  <si>
+    <t>600789.SH</t>
+  </si>
+  <si>
+    <t>600817.SH</t>
+  </si>
+  <si>
+    <t>600818.SH</t>
+  </si>
+  <si>
+    <t>600819.SH</t>
+  </si>
+  <si>
+    <t>600822.SH</t>
+  </si>
+  <si>
+    <t>600824.SH</t>
+  </si>
+  <si>
+    <t>600825.SH</t>
+  </si>
+  <si>
+    <t>600826.SH</t>
+  </si>
+  <si>
+    <t>600830.SH</t>
+  </si>
+  <si>
+    <t>600833.SH</t>
+  </si>
+  <si>
+    <t>600834.SH</t>
+  </si>
+  <si>
+    <t>600836.SH</t>
+  </si>
+  <si>
+    <t>600838.SH</t>
+  </si>
+  <si>
+    <t>600790.SH</t>
+  </si>
+  <si>
+    <t>600787.SH</t>
+  </si>
+  <si>
+    <t>600513.SH</t>
+  </si>
+  <si>
+    <t>600765.SH</t>
+  </si>
+  <si>
+    <t>600742.SH</t>
+  </si>
+  <si>
+    <t>600745.SH</t>
+  </si>
+  <si>
+    <t>600746.SH</t>
+  </si>
+  <si>
+    <t>600749.SH</t>
+  </si>
+  <si>
+    <t>600750.SH</t>
+  </si>
+  <si>
+    <t>600751.SH</t>
+  </si>
+  <si>
+    <t>600753.SH</t>
+  </si>
+  <si>
+    <t>600756.SH</t>
+  </si>
+  <si>
+    <t>600757.SH</t>
+  </si>
+  <si>
+    <t>600761.SH</t>
+  </si>
+  <si>
+    <t>600763.SH</t>
+  </si>
+  <si>
+    <t>600764.SH</t>
+  </si>
+  <si>
+    <t>600766.SH</t>
+  </si>
+  <si>
+    <t>600784.SH</t>
+  </si>
+  <si>
+    <t>600767.SH</t>
+  </si>
+  <si>
+    <t>600768.SH</t>
+  </si>
+  <si>
+    <t>600770.SH</t>
+  </si>
+  <si>
+    <t>600771.SH</t>
+  </si>
+  <si>
+    <t>ST国华</t>
+  </si>
+  <si>
+    <t>杭州解百</t>
+  </si>
+  <si>
+    <t>云煤能源</t>
+  </si>
+  <si>
+    <t>保税科技</t>
+  </si>
+  <si>
+    <t>钱江生化</t>
+  </si>
+  <si>
+    <t>浙大网新</t>
+  </si>
+  <si>
+    <t>宁波海运</t>
+  </si>
+  <si>
+    <t>渤海化学</t>
+  </si>
+  <si>
+    <t>华新水泥</t>
+  </si>
+  <si>
+    <t>福建水泥</t>
+  </si>
+  <si>
+    <t>悦达投资</t>
+  </si>
+  <si>
+    <t>马钢股份</t>
+  </si>
+  <si>
+    <t>山西汾酒</t>
+  </si>
+  <si>
+    <t>东方集团</t>
+  </si>
+  <si>
+    <t>厦工股份</t>
+  </si>
+  <si>
+    <t>鲁抗医药</t>
+  </si>
+  <si>
+    <t>宇通重工</t>
+  </si>
+  <si>
+    <t>中路股份</t>
+  </si>
+  <si>
+    <t>耀皮玻璃</t>
+  </si>
+  <si>
+    <t>上海物贸</t>
+  </si>
+  <si>
+    <t>益民集团</t>
+  </si>
+  <si>
+    <t>新华传媒</t>
+  </si>
+  <si>
+    <t>兰生股份</t>
+  </si>
+  <si>
+    <t>香溢融通</t>
+  </si>
+  <si>
+    <t>第一医药</t>
+  </si>
+  <si>
+    <t>申通地铁</t>
+  </si>
+  <si>
+    <t>上海易连</t>
+  </si>
+  <si>
+    <t>上海九百</t>
+  </si>
+  <si>
+    <t>轻纺城</t>
+  </si>
+  <si>
+    <t>中储股份</t>
+  </si>
+  <si>
+    <t>联环药业</t>
+  </si>
+  <si>
+    <t>中航重机</t>
+  </si>
+  <si>
+    <t>一汽富维</t>
+  </si>
+  <si>
+    <t>闻泰科技</t>
+  </si>
+  <si>
+    <t>江苏索普</t>
+  </si>
+  <si>
+    <t>西藏旅游</t>
+  </si>
+  <si>
+    <t>江中药业</t>
+  </si>
+  <si>
+    <t>海航科技</t>
+  </si>
+  <si>
+    <t>东方银星</t>
+  </si>
+  <si>
+    <t>浪潮软件</t>
+  </si>
+  <si>
+    <t>长江传媒</t>
+  </si>
+  <si>
+    <t>安徽合力</t>
+  </si>
+  <si>
+    <t>通策医疗</t>
+  </si>
+  <si>
+    <t>中国海防</t>
+  </si>
+  <si>
+    <t>*ST园城</t>
+  </si>
+  <si>
+    <t>鲁银投资</t>
+  </si>
+  <si>
+    <t>*ST运盛</t>
+  </si>
+  <si>
+    <t>宁波富邦</t>
+  </si>
+  <si>
+    <t>综艺股份</t>
+  </si>
+  <si>
+    <t>广誉远</t>
   </si>
   <si>
     <t>nan%</t>
@@ -750,7 +750,7 @@
         <v>109</v>
       </c>
       <c r="F2">
-        <v>14.41</v>
+        <v>8.83</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -770,7 +770,7 @@
         <v>109</v>
       </c>
       <c r="F3">
-        <v>12.46</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -790,7 +790,7 @@
         <v>109</v>
       </c>
       <c r="F4">
-        <v>4.28</v>
+        <v>3.95</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -810,7 +810,7 @@
         <v>109</v>
       </c>
       <c r="F5">
-        <v>7.19</v>
+        <v>3.28</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -830,7 +830,7 @@
         <v>109</v>
       </c>
       <c r="F6">
-        <v>5.72</v>
+        <v>5.21</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -850,7 +850,7 @@
         <v>109</v>
       </c>
       <c r="F7">
-        <v>2.78</v>
+        <v>5.41</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -870,7 +870,7 @@
         <v>109</v>
       </c>
       <c r="F8">
-        <v>4.21</v>
+        <v>4.19</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -890,7 +890,7 @@
         <v>109</v>
       </c>
       <c r="F9">
-        <v>11.03</v>
+        <v>3.95</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -910,7 +910,7 @@
         <v>109</v>
       </c>
       <c r="F10">
-        <v>3.28</v>
+        <v>21.47</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -930,7 +930,7 @@
         <v>109</v>
       </c>
       <c r="F11">
-        <v>5.03</v>
+        <v>6.39</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -950,7 +950,7 @@
         <v>109</v>
       </c>
       <c r="F12">
-        <v>20.18</v>
+        <v>4.83</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -970,7 +970,7 @@
         <v>109</v>
       </c>
       <c r="F13">
-        <v>144.68</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -990,7 +990,7 @@
         <v>109</v>
       </c>
       <c r="F14">
-        <v>11.35</v>
+        <v>254.95</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1010,7 +1010,7 @@
         <v>109</v>
       </c>
       <c r="F15">
-        <v>5.17</v>
+        <v>2.89</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1030,7 +1030,7 @@
         <v>109</v>
       </c>
       <c r="F16">
-        <v>14.41</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1050,7 +1050,7 @@
         <v>109</v>
       </c>
       <c r="F17">
-        <v>25.8</v>
+        <v>7.04</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1070,7 +1070,7 @@
         <v>109</v>
       </c>
       <c r="F18">
-        <v>1.7</v>
+        <v>7.95</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1090,7 +1090,7 @@
         <v>109</v>
       </c>
       <c r="F19">
-        <v>4.85</v>
+        <v>17.51</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1110,7 +1110,7 @@
         <v>109</v>
       </c>
       <c r="F20">
-        <v>2.16</v>
+        <v>4.84</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1130,7 +1130,7 @@
         <v>109</v>
       </c>
       <c r="F21">
-        <v>4.47</v>
+        <v>8.57</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1150,7 +1150,7 @@
         <v>109</v>
       </c>
       <c r="F22">
-        <v>5.32</v>
+        <v>4.16</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1170,7 +1170,7 @@
         <v>109</v>
       </c>
       <c r="F23">
-        <v>19.6</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1190,7 +1190,7 @@
         <v>109</v>
       </c>
       <c r="F24">
-        <v>7.47</v>
+        <v>7.55</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1210,7 +1210,7 @@
         <v>109</v>
       </c>
       <c r="F25">
-        <v>5.14</v>
+        <v>5.29</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1230,7 +1230,7 @@
         <v>109</v>
       </c>
       <c r="F26">
-        <v>22.28</v>
+        <v>9.82</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1250,7 +1250,7 @@
         <v>109</v>
       </c>
       <c r="F27">
-        <v>6.27</v>
+        <v>8.48</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1270,7 +1270,7 @@
         <v>109</v>
       </c>
       <c r="F28">
-        <v>8.359999999999999</v>
+        <v>5.79</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1290,7 +1290,7 @@
         <v>109</v>
       </c>
       <c r="F29">
-        <v>2.1</v>
+        <v>10.1</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1310,7 +1310,7 @@
         <v>109</v>
       </c>
       <c r="F30">
-        <v>3.54</v>
+        <v>4.08</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1330,7 +1330,7 @@
         <v>109</v>
       </c>
       <c r="F31">
-        <v>4.89</v>
+        <v>5.72</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1350,7 +1350,7 @@
         <v>109</v>
       </c>
       <c r="F32">
-        <v>5.3</v>
+        <v>9.949999999999999</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1370,7 +1370,7 @@
         <v>109</v>
       </c>
       <c r="F33">
-        <v>7.2</v>
+        <v>40.03</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1390,7 +1390,7 @@
         <v>109</v>
       </c>
       <c r="F34">
-        <v>14.25</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1410,7 +1410,7 @@
         <v>109</v>
       </c>
       <c r="F35">
-        <v>3.89</v>
+        <v>67.54000000000001</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1430,7 +1430,7 @@
         <v>109</v>
       </c>
       <c r="F36">
-        <v>9.73</v>
+        <v>10.7</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1450,7 +1450,7 @@
         <v>109</v>
       </c>
       <c r="F37">
-        <v>4.09</v>
+        <v>12.18</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1470,7 +1470,7 @@
         <v>109</v>
       </c>
       <c r="F38">
-        <v>21.83</v>
+        <v>13.96</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1490,7 +1490,7 @@
         <v>109</v>
       </c>
       <c r="F39">
-        <v>6.3</v>
+        <v>2.73</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1510,7 +1510,7 @@
         <v>109</v>
       </c>
       <c r="F40">
-        <v>3.88</v>
+        <v>11.67</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1530,7 +1530,7 @@
         <v>109</v>
       </c>
       <c r="F41">
-        <v>7.1</v>
+        <v>12.36</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1550,7 +1550,7 @@
         <v>109</v>
       </c>
       <c r="F42">
-        <v>3.81</v>
+        <v>5.38</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1570,7 +1570,7 @@
         <v>109</v>
       </c>
       <c r="F43">
-        <v>3</v>
+        <v>9.869999999999999</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1590,7 +1590,7 @@
         <v>109</v>
       </c>
       <c r="F44">
-        <v>10.8</v>
+        <v>125.88</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1610,7 +1610,7 @@
         <v>109</v>
       </c>
       <c r="F45">
-        <v>5.78</v>
+        <v>22.37</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1630,7 +1630,7 @@
         <v>109</v>
       </c>
       <c r="F46">
-        <v>8.43</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1650,7 +1650,7 @@
         <v>109</v>
       </c>
       <c r="F47">
-        <v>37.6</v>
+        <v>6.15</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1670,7 +1670,7 @@
         <v>109</v>
       </c>
       <c r="F48">
-        <v>4.32</v>
+        <v>4.02</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1690,7 +1690,7 @@
         <v>109</v>
       </c>
       <c r="F49">
-        <v>6.91</v>
+        <v>8.16</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1710,7 +1710,7 @@
         <v>109</v>
       </c>
       <c r="F50">
-        <v>9.9</v>
+        <v>10.03</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1730,7 +1730,7 @@
         <v>109</v>
       </c>
       <c r="F51">
-        <v>1.92</v>
+        <v>29.4</v>
       </c>
     </row>
   </sheetData>

--- a/anlysis/2022-05-16回测-50.xlsx
+++ b/anlysis/2022-05-16回测-50.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="141">
   <si>
     <t>股票名称</t>
   </si>
@@ -40,307 +40,400 @@
     <t>证券代码</t>
   </si>
   <si>
-    <t>000004.SZ</t>
-  </si>
-  <si>
-    <t>600814.SH</t>
-  </si>
-  <si>
-    <t>600792.SH</t>
-  </si>
-  <si>
-    <t>600794.SH</t>
-  </si>
-  <si>
-    <t>600796.SH</t>
-  </si>
-  <si>
-    <t>600797.SH</t>
-  </si>
-  <si>
-    <t>600798.SH</t>
-  </si>
-  <si>
-    <t>600800.SH</t>
-  </si>
-  <si>
-    <t>600801.SH</t>
-  </si>
-  <si>
-    <t>600802.SH</t>
-  </si>
-  <si>
-    <t>600805.SH</t>
-  </si>
-  <si>
-    <t>600808.SH</t>
-  </si>
-  <si>
-    <t>600809.SH</t>
-  </si>
-  <si>
-    <t>600811.SH</t>
-  </si>
-  <si>
-    <t>600815.SH</t>
-  </si>
-  <si>
-    <t>600789.SH</t>
-  </si>
-  <si>
-    <t>600817.SH</t>
-  </si>
-  <si>
-    <t>600818.SH</t>
-  </si>
-  <si>
-    <t>600819.SH</t>
-  </si>
-  <si>
-    <t>600822.SH</t>
-  </si>
-  <si>
-    <t>600824.SH</t>
-  </si>
-  <si>
-    <t>600825.SH</t>
-  </si>
-  <si>
-    <t>600826.SH</t>
-  </si>
-  <si>
-    <t>600830.SH</t>
-  </si>
-  <si>
-    <t>600833.SH</t>
-  </si>
-  <si>
-    <t>600834.SH</t>
-  </si>
-  <si>
-    <t>600836.SH</t>
-  </si>
-  <si>
-    <t>600838.SH</t>
-  </si>
-  <si>
-    <t>600790.SH</t>
-  </si>
-  <si>
-    <t>600787.SH</t>
-  </si>
-  <si>
-    <t>600513.SH</t>
-  </si>
-  <si>
-    <t>600765.SH</t>
-  </si>
-  <si>
-    <t>600742.SH</t>
-  </si>
-  <si>
-    <t>600745.SH</t>
-  </si>
-  <si>
-    <t>600746.SH</t>
-  </si>
-  <si>
-    <t>600749.SH</t>
-  </si>
-  <si>
-    <t>600750.SH</t>
-  </si>
-  <si>
-    <t>600751.SH</t>
-  </si>
-  <si>
-    <t>600753.SH</t>
-  </si>
-  <si>
-    <t>600756.SH</t>
-  </si>
-  <si>
-    <t>600757.SH</t>
-  </si>
-  <si>
-    <t>600761.SH</t>
-  </si>
-  <si>
-    <t>600763.SH</t>
-  </si>
-  <si>
-    <t>600764.SH</t>
-  </si>
-  <si>
-    <t>600766.SH</t>
-  </si>
-  <si>
-    <t>600784.SH</t>
-  </si>
-  <si>
-    <t>600767.SH</t>
-  </si>
-  <si>
-    <t>600768.SH</t>
-  </si>
-  <si>
-    <t>600770.SH</t>
-  </si>
-  <si>
-    <t>600771.SH</t>
-  </si>
-  <si>
-    <t>ST国华</t>
-  </si>
-  <si>
-    <t>杭州解百</t>
-  </si>
-  <si>
-    <t>云煤能源</t>
-  </si>
-  <si>
-    <t>保税科技</t>
-  </si>
-  <si>
-    <t>钱江生化</t>
-  </si>
-  <si>
-    <t>浙大网新</t>
-  </si>
-  <si>
-    <t>宁波海运</t>
-  </si>
-  <si>
-    <t>渤海化学</t>
-  </si>
-  <si>
-    <t>华新水泥</t>
-  </si>
-  <si>
-    <t>福建水泥</t>
-  </si>
-  <si>
-    <t>悦达投资</t>
-  </si>
-  <si>
-    <t>马钢股份</t>
-  </si>
-  <si>
-    <t>山西汾酒</t>
-  </si>
-  <si>
-    <t>东方集团</t>
-  </si>
-  <si>
-    <t>厦工股份</t>
-  </si>
-  <si>
-    <t>鲁抗医药</t>
-  </si>
-  <si>
-    <t>宇通重工</t>
-  </si>
-  <si>
-    <t>中路股份</t>
-  </si>
-  <si>
-    <t>耀皮玻璃</t>
-  </si>
-  <si>
-    <t>上海物贸</t>
-  </si>
-  <si>
-    <t>益民集团</t>
-  </si>
-  <si>
-    <t>新华传媒</t>
-  </si>
-  <si>
-    <t>兰生股份</t>
-  </si>
-  <si>
-    <t>香溢融通</t>
-  </si>
-  <si>
-    <t>第一医药</t>
-  </si>
-  <si>
-    <t>申通地铁</t>
-  </si>
-  <si>
-    <t>上海易连</t>
-  </si>
-  <si>
-    <t>上海九百</t>
-  </si>
-  <si>
-    <t>轻纺城</t>
-  </si>
-  <si>
-    <t>中储股份</t>
-  </si>
-  <si>
-    <t>联环药业</t>
-  </si>
-  <si>
-    <t>中航重机</t>
-  </si>
-  <si>
-    <t>一汽富维</t>
-  </si>
-  <si>
-    <t>闻泰科技</t>
-  </si>
-  <si>
-    <t>江苏索普</t>
-  </si>
-  <si>
-    <t>西藏旅游</t>
-  </si>
-  <si>
-    <t>江中药业</t>
-  </si>
-  <si>
-    <t>海航科技</t>
-  </si>
-  <si>
-    <t>东方银星</t>
-  </si>
-  <si>
-    <t>浪潮软件</t>
-  </si>
-  <si>
-    <t>长江传媒</t>
-  </si>
-  <si>
-    <t>安徽合力</t>
-  </si>
-  <si>
-    <t>通策医疗</t>
-  </si>
-  <si>
-    <t>中国海防</t>
-  </si>
-  <si>
-    <t>*ST园城</t>
-  </si>
-  <si>
-    <t>鲁银投资</t>
-  </si>
-  <si>
-    <t>*ST运盛</t>
-  </si>
-  <si>
-    <t>宁波富邦</t>
-  </si>
-  <si>
-    <t>综艺股份</t>
-  </si>
-  <si>
-    <t>广誉远</t>
-  </si>
-  <si>
-    <t>nan%</t>
+    <t>000629.SZ</t>
+  </si>
+  <si>
+    <t>603871.SH</t>
+  </si>
+  <si>
+    <t>600186.SH</t>
+  </si>
+  <si>
+    <t>002539.SZ</t>
+  </si>
+  <si>
+    <t>600623.SH</t>
+  </si>
+  <si>
+    <t>600618.SH</t>
+  </si>
+  <si>
+    <t>002875.SZ</t>
+  </si>
+  <si>
+    <t>603477.SH</t>
+  </si>
+  <si>
+    <t>300241.SZ</t>
+  </si>
+  <si>
+    <t>688192.SH</t>
+  </si>
+  <si>
+    <t>603189.SH</t>
+  </si>
+  <si>
+    <t>301211.SZ</t>
+  </si>
+  <si>
+    <t>603976.SH</t>
+  </si>
+  <si>
+    <t>002932.SZ</t>
+  </si>
+  <si>
+    <t>688278.SH</t>
+  </si>
+  <si>
+    <t>603138.SH</t>
+  </si>
+  <si>
+    <t>002895.SZ</t>
+  </si>
+  <si>
+    <t>600362.SH</t>
+  </si>
+  <si>
+    <t>688633.SH</t>
+  </si>
+  <si>
+    <t>301051.SZ</t>
+  </si>
+  <si>
+    <t>603933.SH</t>
+  </si>
+  <si>
+    <t>001218.SZ</t>
+  </si>
+  <si>
+    <t>832145.BJ</t>
+  </si>
+  <si>
+    <t>605006.SH</t>
+  </si>
+  <si>
+    <t>688317.SH</t>
+  </si>
+  <si>
+    <t>301186.SZ</t>
+  </si>
+  <si>
+    <t>301042.SZ</t>
+  </si>
+  <si>
+    <t>000898.SZ</t>
+  </si>
+  <si>
+    <t>605060.SH</t>
+  </si>
+  <si>
+    <t>688295.SH</t>
+  </si>
+  <si>
+    <t>001296.SZ</t>
+  </si>
+  <si>
+    <t>300970.SZ</t>
+  </si>
+  <si>
+    <t>688079.SH</t>
+  </si>
+  <si>
+    <t>605077.SH</t>
+  </si>
+  <si>
+    <t>605598.SH</t>
+  </si>
+  <si>
+    <t>001317.SZ</t>
+  </si>
+  <si>
+    <t>002405.SZ</t>
+  </si>
+  <si>
+    <t>600955.SH</t>
+  </si>
+  <si>
+    <t>001207.SZ</t>
+  </si>
+  <si>
+    <t>002753.SZ</t>
+  </si>
+  <si>
+    <t>688819.SH</t>
+  </si>
+  <si>
+    <t>601518.SH</t>
+  </si>
+  <si>
+    <t>002884.SZ</t>
+  </si>
+  <si>
+    <t>603213.SH</t>
+  </si>
+  <si>
+    <t>300930.SZ</t>
+  </si>
+  <si>
+    <t>300158.SZ</t>
+  </si>
+  <si>
+    <t>002442.SZ</t>
+  </si>
+  <si>
+    <t>301188.SZ</t>
+  </si>
+  <si>
+    <t>002274.SZ</t>
+  </si>
+  <si>
+    <t>002105.SZ</t>
+  </si>
+  <si>
+    <t>攀钢钒钛</t>
+  </si>
+  <si>
+    <t>嘉友国际</t>
+  </si>
+  <si>
+    <t>莲花健康</t>
+  </si>
+  <si>
+    <t>云图控股</t>
+  </si>
+  <si>
+    <t>华谊集团</t>
+  </si>
+  <si>
+    <t>氯碱化工</t>
+  </si>
+  <si>
+    <t>安奈儿</t>
+  </si>
+  <si>
+    <t>巨星农牧</t>
+  </si>
+  <si>
+    <t>瑞丰光电</t>
+  </si>
+  <si>
+    <t>迪哲医药-U</t>
+  </si>
+  <si>
+    <t>网达软件</t>
+  </si>
+  <si>
+    <t>亨迪药业</t>
+  </si>
+  <si>
+    <t>正川股份</t>
+  </si>
+  <si>
+    <t>明德生物</t>
+  </si>
+  <si>
+    <t>特宝生物</t>
+  </si>
+  <si>
+    <t>海量数据</t>
+  </si>
+  <si>
+    <t>川恒股份</t>
+  </si>
+  <si>
+    <t>江西铜业</t>
+  </si>
+  <si>
+    <t>星球石墨</t>
+  </si>
+  <si>
+    <t>信濠光电</t>
+  </si>
+  <si>
+    <t>睿能科技</t>
+  </si>
+  <si>
+    <t>丽臣实业</t>
+  </si>
+  <si>
+    <t>恒合股份</t>
+  </si>
+  <si>
+    <t>山东玻纤</t>
+  </si>
+  <si>
+    <t>之江生物</t>
+  </si>
+  <si>
+    <t>超达装备</t>
+  </si>
+  <si>
+    <t>安联锐视</t>
+  </si>
+  <si>
+    <t>鞍钢股份</t>
+  </si>
+  <si>
+    <t>联德股份</t>
+  </si>
+  <si>
+    <t>中复神鹰</t>
+  </si>
+  <si>
+    <t>长江材料</t>
+  </si>
+  <si>
+    <t>华绿生物</t>
+  </si>
+  <si>
+    <t>美迪凯</t>
+  </si>
+  <si>
+    <t>华康股份</t>
+  </si>
+  <si>
+    <t>上海港湾</t>
+  </si>
+  <si>
+    <t>三羊马</t>
+  </si>
+  <si>
+    <t>四维图新</t>
+  </si>
+  <si>
+    <t>维远股份</t>
+  </si>
+  <si>
+    <t>联科科技</t>
+  </si>
+  <si>
+    <t>永东股份</t>
+  </si>
+  <si>
+    <t>天能股份</t>
+  </si>
+  <si>
+    <t>吉林高速</t>
+  </si>
+  <si>
+    <t>凌霄泵业</t>
+  </si>
+  <si>
+    <t>镇洋发展</t>
+  </si>
+  <si>
+    <t>屹通新材</t>
+  </si>
+  <si>
+    <t>振东制药</t>
+  </si>
+  <si>
+    <t>龙星化工</t>
+  </si>
+  <si>
+    <t>力诺特玻</t>
+  </si>
+  <si>
+    <t>华昌化工</t>
+  </si>
+  <si>
+    <t>信隆健康</t>
+  </si>
+  <si>
+    <t>2.6716%</t>
+  </si>
+  <si>
+    <t>2.0971%</t>
+  </si>
+  <si>
+    <t>2.0267%</t>
+  </si>
+  <si>
+    <t>2.0018%</t>
+  </si>
+  <si>
+    <t>1.9955%</t>
+  </si>
+  <si>
+    <t>1.9947%</t>
+  </si>
+  <si>
+    <t>1.9914%</t>
+  </si>
+  <si>
+    <t>1.9899%</t>
+  </si>
+  <si>
+    <t>1.9897%</t>
+  </si>
+  <si>
+    <t>1.9863%</t>
+  </si>
+  <si>
+    <t>1.9853%</t>
+  </si>
+  <si>
+    <t>1.9852%</t>
+  </si>
+  <si>
+    <t>1.9850%</t>
+  </si>
+  <si>
+    <t>1.9839%</t>
+  </si>
+  <si>
+    <t>1.9826%</t>
+  </si>
+  <si>
+    <t>1.9823%</t>
+  </si>
+  <si>
+    <t>1.9820%</t>
+  </si>
+  <si>
+    <t>1.9817%</t>
+  </si>
+  <si>
+    <t>1.9815%</t>
+  </si>
+  <si>
+    <t>1.9813%</t>
+  </si>
+  <si>
+    <t>1.9811%</t>
+  </si>
+  <si>
+    <t>1.9810%</t>
+  </si>
+  <si>
+    <t>1.9807%</t>
+  </si>
+  <si>
+    <t>1.9806%</t>
+  </si>
+  <si>
+    <t>1.9805%</t>
+  </si>
+  <si>
+    <t>1.9804%</t>
+  </si>
+  <si>
+    <t>1.9803%</t>
+  </si>
+  <si>
+    <t>1.9802%</t>
+  </si>
+  <si>
+    <t>1.9801%</t>
+  </si>
+  <si>
+    <t>1.9800%</t>
+  </si>
+  <si>
+    <t>1.9799%</t>
+  </si>
+  <si>
+    <t>1.9798%</t>
   </si>
   <si>
     <t>2022-05-16</t>
@@ -741,16 +834,22 @@
         <v>58</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>34.51582786570617</v>
       </c>
       <c r="D2" t="s">
         <v>108</v>
       </c>
       <c r="E2" t="s">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="F2">
-        <v>8.83</v>
+        <v>3.19</v>
+      </c>
+      <c r="G2">
+        <v>26715.70104110773</v>
+      </c>
+      <c r="H2">
+        <v>8374</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -761,16 +860,22 @@
         <v>59</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>27.0937289719979</v>
       </c>
       <c r="D3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E3" t="s">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="F3">
-        <v>7.1</v>
+        <v>20.12</v>
+      </c>
+      <c r="G3">
+        <v>20970.8996730705</v>
+      </c>
+      <c r="H3">
+        <v>1042</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -781,16 +886,22 @@
         <v>60</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>26.18474155960208</v>
       </c>
       <c r="D4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E4" t="s">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="F4">
-        <v>3.95</v>
+        <v>2.33</v>
+      </c>
+      <c r="G4">
+        <v>20267.33155776462</v>
+      </c>
+      <c r="H4">
+        <v>8698</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -801,16 +912,22 @@
         <v>61</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>25.86287868637632</v>
       </c>
       <c r="D5" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E5" t="s">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="F5">
-        <v>3.28</v>
+        <v>14.79</v>
+      </c>
+      <c r="G5">
+        <v>20018.20549505543</v>
+      </c>
+      <c r="H5">
+        <v>1353</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -821,16 +938,22 @@
         <v>62</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>25.78069635670617</v>
       </c>
       <c r="D6" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E6" t="s">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="F6">
-        <v>5.21</v>
+        <v>7.48</v>
+      </c>
+      <c r="G6">
+        <v>19954.59529978873</v>
+      </c>
+      <c r="H6">
+        <v>2667</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -841,16 +964,22 @@
         <v>63</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>25.7709718874396</v>
       </c>
       <c r="D7" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E7" t="s">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="F7">
-        <v>5.41</v>
+        <v>11.28</v>
+      </c>
+      <c r="G7">
+        <v>19947.06843371674</v>
+      </c>
+      <c r="H7">
+        <v>1768</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -861,16 +990,22 @@
         <v>64</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>25.770869256255</v>
       </c>
       <c r="D8" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E8" t="s">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="F8">
-        <v>4.19</v>
+        <v>9.92</v>
+      </c>
+      <c r="G8">
+        <v>19946.98899584099</v>
+      </c>
+      <c r="H8">
+        <v>2010</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -881,16 +1016,22 @@
         <v>65</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>25.72768549420041</v>
       </c>
       <c r="D9" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="E9" t="s">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="F9">
-        <v>3.95</v>
+        <v>18.15</v>
+      </c>
+      <c r="G9">
+        <v>19913.56420066096</v>
+      </c>
+      <c r="H9">
+        <v>1097</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -901,16 +1042,22 @@
         <v>66</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>25.70915563229239</v>
       </c>
       <c r="D10" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="E10" t="s">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="F10">
-        <v>21.47</v>
+        <v>5.1</v>
+      </c>
+      <c r="G10">
+        <v>19899.22184581454</v>
+      </c>
+      <c r="H10">
+        <v>3901</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -921,16 +1068,22 @@
         <v>67</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>25.70629505446706</v>
       </c>
       <c r="D11" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="E11" t="s">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="F11">
-        <v>6.39</v>
+        <v>24.4</v>
+      </c>
+      <c r="G11">
+        <v>19897.00772126032</v>
+      </c>
+      <c r="H11">
+        <v>815</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -941,16 +1094,22 @@
         <v>68</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>25.66285863529325</v>
       </c>
       <c r="D12" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="E12" t="s">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="F12">
-        <v>4.83</v>
+        <v>11.9</v>
+      </c>
+      <c r="G12">
+        <v>19863.387366174</v>
+      </c>
+      <c r="H12">
+        <v>1669</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -961,16 +1120,22 @@
         <v>69</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>25.64992090743665</v>
       </c>
       <c r="D13" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="E13" t="s">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="F13">
-        <v>3.9</v>
+        <v>22.8</v>
+      </c>
+      <c r="G13">
+        <v>19853.37339603505</v>
+      </c>
+      <c r="H13">
+        <v>870</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -981,16 +1146,22 @@
         <v>70</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>25.64768627124328</v>
       </c>
       <c r="D14" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="E14" t="s">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="F14">
-        <v>254.95</v>
+        <v>22.98</v>
+      </c>
+      <c r="G14">
+        <v>19851.64375846964</v>
+      </c>
+      <c r="H14">
+        <v>863</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1001,16 +1172,22 @@
         <v>71</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>25.64568812813394</v>
       </c>
       <c r="D15" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="E15" t="s">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="F15">
-        <v>2.89</v>
+        <v>104.98</v>
+      </c>
+      <c r="G15">
+        <v>19850.09716963642</v>
+      </c>
+      <c r="H15">
+        <v>189</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1021,19 +1198,25 @@
         <v>72</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>25.63186224798738</v>
       </c>
       <c r="D16" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="E16" t="s">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="F16">
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>26.27</v>
+      </c>
+      <c r="G16">
+        <v>19839.39575803874</v>
+      </c>
+      <c r="H16">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
         <v>23</v>
       </c>
@@ -1041,19 +1224,25 @@
         <v>73</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>25.61498090386247</v>
       </c>
       <c r="D17" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="E17" t="s">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="F17">
-        <v>7.04</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>13.29</v>
+      </c>
+      <c r="G17">
+        <v>19826.32937746204</v>
+      </c>
+      <c r="H17">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
         <v>24</v>
       </c>
@@ -1061,19 +1250,25 @@
         <v>74</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>25.61121240021274</v>
       </c>
       <c r="D18" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="E18" t="s">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="F18">
-        <v>7.95</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>28.47</v>
+      </c>
+      <c r="G18">
+        <v>19823.41250647548</v>
+      </c>
+      <c r="H18">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
         <v>25</v>
       </c>
@@ -1081,19 +1276,25 @@
         <v>75</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>25.60663666042552</v>
       </c>
       <c r="D19" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="E19" t="s">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="F19">
-        <v>17.51</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>17.25</v>
+      </c>
+      <c r="G19">
+        <v>19819.87082418778</v>
+      </c>
+      <c r="H19">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
         <v>26</v>
       </c>
@@ -1101,19 +1302,25 @@
         <v>76</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>25.60261559406468</v>
       </c>
       <c r="D20" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="E20" t="s">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="F20">
-        <v>4.84</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>41.6</v>
+      </c>
+      <c r="G20">
+        <v>19816.75846636804</v>
+      </c>
+      <c r="H20">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
         <v>27</v>
       </c>
@@ -1121,19 +1328,25 @@
         <v>77</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>25.60002041143314</v>
       </c>
       <c r="D21" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="E21" t="s">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="F21">
-        <v>8.57</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>58.04</v>
+      </c>
+      <c r="G21">
+        <v>19814.74976115602</v>
+      </c>
+      <c r="H21">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
         <v>28</v>
       </c>
@@ -1141,19 +1354,25 @@
         <v>78</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>25.59752998775526</v>
       </c>
       <c r="D22" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="E22" t="s">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="F22">
-        <v>4.16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>10.27</v>
+      </c>
+      <c r="G22">
+        <v>19812.82214074074</v>
+      </c>
+      <c r="H22">
+        <v>1929</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
         <v>29</v>
       </c>
@@ -1161,19 +1380,25 @@
         <v>79</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>25.59714940871402</v>
       </c>
       <c r="D23" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="E23" t="s">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="F23">
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>32.3</v>
+      </c>
+      <c r="G23">
+        <v>19812.52756759801</v>
+      </c>
+      <c r="H23">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
         <v>30</v>
       </c>
@@ -1181,19 +1406,25 @@
         <v>80</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>25.59518022536806</v>
       </c>
       <c r="D24" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="E24" t="s">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="F24">
-        <v>7.55</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>6.55</v>
+      </c>
+      <c r="G24">
+        <v>19811.00339399944</v>
+      </c>
+      <c r="H24">
+        <v>3024</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
         <v>31</v>
       </c>
@@ -1201,19 +1432,25 @@
         <v>81</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>25.59502329754269</v>
       </c>
       <c r="D25" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="E25" t="s">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="F25">
-        <v>5.29</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>10.01</v>
+      </c>
+      <c r="G25">
+        <v>19810.88192981542</v>
+      </c>
+      <c r="H25">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
         <v>32</v>
       </c>
@@ -1221,19 +1458,25 @@
         <v>82</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>25.59364222206786</v>
       </c>
       <c r="D26" t="s">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="E26" t="s">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="F26">
-        <v>9.82</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>36.8</v>
+      </c>
+      <c r="G26">
+        <v>19809.8129593812</v>
+      </c>
+      <c r="H26">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
         <v>33</v>
       </c>
@@ -1241,19 +1484,25 @@
         <v>83</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>25.59016145939438</v>
       </c>
       <c r="D27" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="E27" t="s">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="F27">
-        <v>8.48</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>30.71</v>
+      </c>
+      <c r="G27">
+        <v>19807.11880366397</v>
+      </c>
+      <c r="H27">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
         <v>34</v>
       </c>
@@ -1261,19 +1510,25 @@
         <v>84</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>25.58914814744078</v>
       </c>
       <c r="D28" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="E28" t="s">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="F28">
-        <v>5.79</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>32.5</v>
+      </c>
+      <c r="G28">
+        <v>19806.33448699281</v>
+      </c>
+      <c r="H28">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
         <v>35</v>
       </c>
@@ -1281,19 +1536,25 @@
         <v>85</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>25.58910463234226</v>
       </c>
       <c r="D29" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="E29" t="s">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="F29">
-        <v>10.1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>3.41</v>
+      </c>
+      <c r="G29">
+        <v>19806.30080573888</v>
+      </c>
+      <c r="H29">
+        <v>5808</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
         <v>36</v>
       </c>
@@ -1301,19 +1562,25 @@
         <v>86</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>25.58873159941367</v>
       </c>
       <c r="D30" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="E30" t="s">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="F30">
-        <v>4.08</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>17.41</v>
+      </c>
+      <c r="G30">
+        <v>19806.01207338579</v>
+      </c>
+      <c r="H30">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
         <v>37</v>
       </c>
@@ -1321,19 +1588,25 @@
         <v>87</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>25.58850046536114</v>
       </c>
       <c r="D31" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="E31" t="s">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="F31">
-        <v>5.72</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>31.5</v>
+      </c>
+      <c r="G31">
+        <v>19805.83317261389</v>
+      </c>
+      <c r="H31">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
         <v>38</v>
       </c>
@@ -1341,19 +1614,25 @@
         <v>88</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>25.5879624820642</v>
       </c>
       <c r="D32" t="s">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="E32" t="s">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="F32">
-        <v>9.949999999999999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>30.3</v>
+      </c>
+      <c r="G32">
+        <v>19805.41676652385</v>
+      </c>
+      <c r="H32">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
         <v>39</v>
       </c>
@@ -1361,19 +1640,25 @@
         <v>89</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>25.58765347297281</v>
       </c>
       <c r="D33" t="s">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="E33" t="s">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="F33">
-        <v>40.03</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>20.29</v>
+      </c>
+      <c r="G33">
+        <v>19805.17758945597</v>
+      </c>
+      <c r="H33">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
         <v>40</v>
       </c>
@@ -1381,19 +1666,25 @@
         <v>90</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>25.58603758026316</v>
       </c>
       <c r="D34" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="E34" t="s">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="F34">
-        <v>8.6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>10.68</v>
+      </c>
+      <c r="G34">
+        <v>19803.92686741871</v>
+      </c>
+      <c r="H34">
+        <v>1854</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
         <v>41</v>
       </c>
@@ -1401,19 +1692,25 @@
         <v>91</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>25.58464372553905</v>
       </c>
       <c r="D35" t="s">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="E35" t="s">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="F35">
-        <v>67.54000000000001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>28.85</v>
+      </c>
+      <c r="G35">
+        <v>19802.84800567884</v>
+      </c>
+      <c r="H35">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
         <v>42</v>
       </c>
@@ -1421,19 +1718,25 @@
         <v>92</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>25.58439896492861</v>
       </c>
       <c r="D36" t="s">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="E36" t="s">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="F36">
-        <v>10.7</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>20.17</v>
+      </c>
+      <c r="G36">
+        <v>19802.65855777336</v>
+      </c>
+      <c r="H36">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
         <v>43</v>
       </c>
@@ -1441,19 +1744,25 @@
         <v>93</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>25.58430877290682</v>
       </c>
       <c r="D37" t="s">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="E37" t="s">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="F37">
-        <v>12.18</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
+        <v>57.69</v>
+      </c>
+      <c r="G37">
+        <v>19802.58874797191</v>
+      </c>
+      <c r="H37">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
         <v>44</v>
       </c>
@@ -1461,19 +1770,25 @@
         <v>94</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>25.58419690804294</v>
       </c>
       <c r="D38" t="s">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="E38" t="s">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="F38">
-        <v>13.96</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>12.63</v>
+      </c>
+      <c r="G38">
+        <v>19802.50216310794</v>
+      </c>
+      <c r="H38">
+        <v>1567</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
         <v>45</v>
       </c>
@@ -1481,19 +1796,25 @@
         <v>95</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>25.58372788014763</v>
       </c>
       <c r="D39" t="s">
-        <v>108</v>
+        <v>135</v>
       </c>
       <c r="E39" t="s">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="F39">
-        <v>2.73</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>27.75</v>
+      </c>
+      <c r="G39">
+        <v>19802.13912939831</v>
+      </c>
+      <c r="H39">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
         <v>46</v>
       </c>
@@ -1501,19 +1822,25 @@
         <v>96</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>25.58348972386849</v>
       </c>
       <c r="D40" t="s">
-        <v>108</v>
+        <v>135</v>
       </c>
       <c r="E40" t="s">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="F40">
-        <v>11.67</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>15.7</v>
+      </c>
+      <c r="G40">
+        <v>19801.95479333141</v>
+      </c>
+      <c r="H40">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
         <v>47</v>
       </c>
@@ -1521,19 +1848,25 @@
         <v>97</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>25.58311773313108</v>
       </c>
       <c r="D41" t="s">
-        <v>108</v>
+        <v>135</v>
       </c>
       <c r="E41" t="s">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="F41">
-        <v>12.36</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>7.08</v>
+      </c>
+      <c r="G41">
+        <v>19801.66686764788</v>
+      </c>
+      <c r="H41">
+        <v>2796</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
         <v>48</v>
       </c>
@@ -1541,19 +1874,25 @@
         <v>98</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>25.58284147456876</v>
       </c>
       <c r="D42" t="s">
-        <v>108</v>
+        <v>136</v>
       </c>
       <c r="E42" t="s">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="F42">
-        <v>5.38</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>28.76</v>
+      </c>
+      <c r="G42">
+        <v>19801.45303991675</v>
+      </c>
+      <c r="H42">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
         <v>49</v>
       </c>
@@ -1561,19 +1900,25 @@
         <v>99</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>25.58260784682043</v>
       </c>
       <c r="D43" t="s">
-        <v>108</v>
+        <v>136</v>
       </c>
       <c r="E43" t="s">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="F43">
-        <v>9.869999999999999</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>2.7</v>
+      </c>
+      <c r="G43">
+        <v>19801.27220899177</v>
+      </c>
+      <c r="H43">
+        <v>7333</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
         <v>50</v>
       </c>
@@ -1581,19 +1926,25 @@
         <v>100</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>25.58066191622424</v>
       </c>
       <c r="D44" t="s">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="E44" t="s">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="F44">
-        <v>125.88</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>21.41</v>
+      </c>
+      <c r="G44">
+        <v>19799.76603332486</v>
+      </c>
+      <c r="H44">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
         <v>51</v>
       </c>
@@ -1601,19 +1952,25 @@
         <v>101</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>25.57935938007986</v>
       </c>
       <c r="D45" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
       <c r="E45" t="s">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="F45">
-        <v>22.37</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
+        <v>15.86</v>
+      </c>
+      <c r="G45">
+        <v>19798.75785335699</v>
+      </c>
+      <c r="H45">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
         <v>52</v>
       </c>
@@ -1621,19 +1978,25 @@
         <v>102</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>25.57922208319515</v>
       </c>
       <c r="D46" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
       <c r="E46" t="s">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="F46">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>22.56</v>
+      </c>
+      <c r="G46">
+        <v>19798.65158377713</v>
+      </c>
+      <c r="H46">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
         <v>53</v>
       </c>
@@ -1641,19 +2004,25 @@
         <v>103</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>25.57901252594956</v>
       </c>
       <c r="D47" t="s">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="E47" t="s">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="F47">
-        <v>6.15</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>8.359999999999999</v>
+      </c>
+      <c r="G47">
+        <v>19798.48938373529</v>
+      </c>
+      <c r="H47">
+        <v>2368</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
         <v>54</v>
       </c>
@@ -1661,19 +2030,25 @@
         <v>104</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>25.57890700134319</v>
       </c>
       <c r="D48" t="s">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="E48" t="s">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="F48">
-        <v>4.02</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>4.68</v>
+      </c>
+      <c r="G48">
+        <v>19798.40770631335</v>
+      </c>
+      <c r="H48">
+        <v>4230</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
         <v>55</v>
       </c>
@@ -1681,19 +2056,25 @@
         <v>105</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>25.57850372272777</v>
       </c>
       <c r="D49" t="s">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="E49" t="s">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="F49">
-        <v>8.16</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+        <v>15.94</v>
+      </c>
+      <c r="G49">
+        <v>19798.09556340408</v>
+      </c>
+      <c r="H49">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
         <v>56</v>
       </c>
@@ -1701,19 +2082,25 @@
         <v>106</v>
       </c>
       <c r="C50">
-        <v>0</v>
+        <v>25.57838791539157</v>
       </c>
       <c r="D50" t="s">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="E50" t="s">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="F50">
-        <v>10.03</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>8.77</v>
+      </c>
+      <c r="G50">
+        <v>19798.00592701511</v>
+      </c>
+      <c r="H50">
+        <v>2257</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
         <v>57</v>
       </c>
@@ -1721,16 +2108,22 @@
         <v>107</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <v>25.5783430877588</v>
       </c>
       <c r="D51" t="s">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="E51" t="s">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="F51">
-        <v>29.4</v>
+        <v>7.28</v>
+      </c>
+      <c r="G51">
+        <v>19797.97122984254</v>
+      </c>
+      <c r="H51">
+        <v>2719</v>
       </c>
     </row>
   </sheetData>

--- a/anlysis/2022-05-16回测-50.xlsx
+++ b/anlysis/2022-05-16回测-50.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="159">
   <si>
     <t>股票名称</t>
   </si>
@@ -40,400 +40,454 @@
     <t>证券代码</t>
   </si>
   <si>
-    <t>000629.SZ</t>
-  </si>
-  <si>
-    <t>603871.SH</t>
+    <t>605599.SH</t>
+  </si>
+  <si>
+    <t>600884.SH</t>
+  </si>
+  <si>
+    <t>000893.SZ</t>
+  </si>
+  <si>
+    <t>600618.SH</t>
+  </si>
+  <si>
+    <t>002774.SZ</t>
+  </si>
+  <si>
+    <t>600746.SH</t>
+  </si>
+  <si>
+    <t>300319.SZ</t>
+  </si>
+  <si>
+    <t>300241.SZ</t>
+  </si>
+  <si>
+    <t>000731.SZ</t>
+  </si>
+  <si>
+    <t>300786.SZ</t>
   </si>
   <si>
     <t>600186.SH</t>
   </si>
   <si>
-    <t>002539.SZ</t>
-  </si>
-  <si>
-    <t>600623.SH</t>
-  </si>
-  <si>
-    <t>600618.SH</t>
-  </si>
-  <si>
-    <t>002875.SZ</t>
-  </si>
-  <si>
-    <t>603477.SH</t>
-  </si>
-  <si>
-    <t>300241.SZ</t>
-  </si>
-  <si>
-    <t>688192.SH</t>
-  </si>
-  <si>
-    <t>603189.SH</t>
-  </si>
-  <si>
-    <t>301211.SZ</t>
-  </si>
-  <si>
-    <t>603976.SH</t>
-  </si>
-  <si>
-    <t>002932.SZ</t>
-  </si>
-  <si>
-    <t>688278.SH</t>
-  </si>
-  <si>
-    <t>603138.SH</t>
-  </si>
-  <si>
-    <t>002895.SZ</t>
-  </si>
-  <si>
-    <t>600362.SH</t>
-  </si>
-  <si>
-    <t>688633.SH</t>
-  </si>
-  <si>
-    <t>301051.SZ</t>
-  </si>
-  <si>
-    <t>603933.SH</t>
-  </si>
-  <si>
-    <t>001218.SZ</t>
-  </si>
-  <si>
-    <t>832145.BJ</t>
-  </si>
-  <si>
-    <t>605006.SH</t>
-  </si>
-  <si>
-    <t>688317.SH</t>
-  </si>
-  <si>
-    <t>301186.SZ</t>
-  </si>
-  <si>
-    <t>301042.SZ</t>
-  </si>
-  <si>
-    <t>000898.SZ</t>
-  </si>
-  <si>
-    <t>605060.SH</t>
-  </si>
-  <si>
-    <t>688295.SH</t>
-  </si>
-  <si>
-    <t>001296.SZ</t>
-  </si>
-  <si>
-    <t>300970.SZ</t>
-  </si>
-  <si>
-    <t>688079.SH</t>
-  </si>
-  <si>
-    <t>605077.SH</t>
-  </si>
-  <si>
-    <t>605598.SH</t>
-  </si>
-  <si>
-    <t>001317.SZ</t>
-  </si>
-  <si>
-    <t>002405.SZ</t>
-  </si>
-  <si>
-    <t>600955.SH</t>
-  </si>
-  <si>
-    <t>001207.SZ</t>
-  </si>
-  <si>
-    <t>002753.SZ</t>
-  </si>
-  <si>
-    <t>688819.SH</t>
-  </si>
-  <si>
-    <t>601518.SH</t>
-  </si>
-  <si>
-    <t>002884.SZ</t>
+    <t>688779.SH</t>
+  </si>
+  <si>
+    <t>300821.SZ</t>
+  </si>
+  <si>
+    <t>603738.SH</t>
+  </si>
+  <si>
+    <t>300991.SZ</t>
+  </si>
+  <si>
+    <t>002134.SZ</t>
+  </si>
+  <si>
+    <t>603260.SH</t>
+  </si>
+  <si>
+    <t>600586.SH</t>
+  </si>
+  <si>
+    <t>688261.SH</t>
+  </si>
+  <si>
+    <t>600596.SH</t>
+  </si>
+  <si>
+    <t>688005.SH</t>
+  </si>
+  <si>
+    <t>688699.SH</t>
+  </si>
+  <si>
+    <t>600859.SH</t>
+  </si>
+  <si>
+    <t>600366.SH</t>
+  </si>
+  <si>
+    <t>605399.SH</t>
   </si>
   <si>
     <t>603213.SH</t>
   </si>
   <si>
-    <t>300930.SZ</t>
-  </si>
-  <si>
-    <t>300158.SZ</t>
-  </si>
-  <si>
-    <t>002442.SZ</t>
-  </si>
-  <si>
-    <t>301188.SZ</t>
-  </si>
-  <si>
-    <t>002274.SZ</t>
-  </si>
-  <si>
-    <t>002105.SZ</t>
-  </si>
-  <si>
-    <t>攀钢钒钛</t>
-  </si>
-  <si>
-    <t>嘉友国际</t>
+    <t>002136.SZ</t>
+  </si>
+  <si>
+    <t>002345.SZ</t>
+  </si>
+  <si>
+    <t>603595.SH</t>
+  </si>
+  <si>
+    <t>301150.SZ</t>
+  </si>
+  <si>
+    <t>603612.SH</t>
+  </si>
+  <si>
+    <t>002824.SZ</t>
+  </si>
+  <si>
+    <t>603599.SH</t>
+  </si>
+  <si>
+    <t>605020.SH</t>
+  </si>
+  <si>
+    <t>300217.SZ</t>
+  </si>
+  <si>
+    <t>002648.SZ</t>
+  </si>
+  <si>
+    <t>002497.SZ</t>
+  </si>
+  <si>
+    <t>300095.SZ</t>
+  </si>
+  <si>
+    <t>600873.SH</t>
+  </si>
+  <si>
+    <t>300358.SZ</t>
+  </si>
+  <si>
+    <t>002226.SZ</t>
+  </si>
+  <si>
+    <t>835185.BJ</t>
+  </si>
+  <si>
+    <t>301133.SZ</t>
+  </si>
+  <si>
+    <t>688357.SH</t>
+  </si>
+  <si>
+    <t>300772.SZ</t>
+  </si>
+  <si>
+    <t>002129.SZ</t>
+  </si>
+  <si>
+    <t>002245.SZ</t>
+  </si>
+  <si>
+    <t>301200.SZ</t>
+  </si>
+  <si>
+    <t>002723.SZ</t>
+  </si>
+  <si>
+    <t>600207.SH</t>
+  </si>
+  <si>
+    <t>菜百股份</t>
+  </si>
+  <si>
+    <t>杉杉股份</t>
+  </si>
+  <si>
+    <t>亚钾国际</t>
+  </si>
+  <si>
+    <t>氯碱化工</t>
+  </si>
+  <si>
+    <t>快意电梯</t>
+  </si>
+  <si>
+    <t>江苏索普</t>
+  </si>
+  <si>
+    <t>麦捷科技</t>
+  </si>
+  <si>
+    <t>瑞丰光电</t>
+  </si>
+  <si>
+    <t>四川美丰</t>
+  </si>
+  <si>
+    <t>国林科技</t>
   </si>
   <si>
     <t>莲花健康</t>
   </si>
   <si>
-    <t>云图控股</t>
-  </si>
-  <si>
-    <t>华谊集团</t>
-  </si>
-  <si>
-    <t>氯碱化工</t>
-  </si>
-  <si>
-    <t>安奈儿</t>
-  </si>
-  <si>
-    <t>巨星农牧</t>
-  </si>
-  <si>
-    <t>瑞丰光电</t>
-  </si>
-  <si>
-    <t>迪哲医药-U</t>
-  </si>
-  <si>
-    <t>网达软件</t>
-  </si>
-  <si>
-    <t>亨迪药业</t>
-  </si>
-  <si>
-    <t>正川股份</t>
-  </si>
-  <si>
-    <t>明德生物</t>
-  </si>
-  <si>
-    <t>特宝生物</t>
-  </si>
-  <si>
-    <t>海量数据</t>
-  </si>
-  <si>
-    <t>川恒股份</t>
-  </si>
-  <si>
-    <t>江西铜业</t>
-  </si>
-  <si>
-    <t>星球石墨</t>
-  </si>
-  <si>
-    <t>信濠光电</t>
-  </si>
-  <si>
-    <t>睿能科技</t>
-  </si>
-  <si>
-    <t>丽臣实业</t>
-  </si>
-  <si>
-    <t>恒合股份</t>
-  </si>
-  <si>
-    <t>山东玻纤</t>
-  </si>
-  <si>
-    <t>之江生物</t>
-  </si>
-  <si>
-    <t>超达装备</t>
-  </si>
-  <si>
-    <t>安联锐视</t>
-  </si>
-  <si>
-    <t>鞍钢股份</t>
-  </si>
-  <si>
-    <t>联德股份</t>
-  </si>
-  <si>
-    <t>中复神鹰</t>
-  </si>
-  <si>
-    <t>长江材料</t>
-  </si>
-  <si>
-    <t>华绿生物</t>
-  </si>
-  <si>
-    <t>美迪凯</t>
-  </si>
-  <si>
-    <t>华康股份</t>
-  </si>
-  <si>
-    <t>上海港湾</t>
-  </si>
-  <si>
-    <t>三羊马</t>
-  </si>
-  <si>
-    <t>四维图新</t>
-  </si>
-  <si>
-    <t>维远股份</t>
-  </si>
-  <si>
-    <t>联科科技</t>
-  </si>
-  <si>
-    <t>永东股份</t>
-  </si>
-  <si>
-    <t>天能股份</t>
-  </si>
-  <si>
-    <t>吉林高速</t>
-  </si>
-  <si>
-    <t>凌霄泵业</t>
+    <t>长远锂科</t>
+  </si>
+  <si>
+    <t>东岳硅材</t>
+  </si>
+  <si>
+    <t>泰晶科技</t>
+  </si>
+  <si>
+    <t>创益通</t>
+  </si>
+  <si>
+    <t>天津普林</t>
+  </si>
+  <si>
+    <t>合盛硅业</t>
+  </si>
+  <si>
+    <t>金晶科技</t>
+  </si>
+  <si>
+    <t>东微半导</t>
+  </si>
+  <si>
+    <t>新安股份</t>
+  </si>
+  <si>
+    <t>容百科技</t>
+  </si>
+  <si>
+    <t>明微电子</t>
+  </si>
+  <si>
+    <t>王府井</t>
+  </si>
+  <si>
+    <t>宁波韵升</t>
+  </si>
+  <si>
+    <t>晨光新材</t>
   </si>
   <si>
     <t>镇洋发展</t>
   </si>
   <si>
-    <t>屹通新材</t>
-  </si>
-  <si>
-    <t>振东制药</t>
-  </si>
-  <si>
-    <t>龙星化工</t>
-  </si>
-  <si>
-    <t>力诺特玻</t>
-  </si>
-  <si>
-    <t>华昌化工</t>
-  </si>
-  <si>
-    <t>信隆健康</t>
-  </si>
-  <si>
-    <t>2.6716%</t>
-  </si>
-  <si>
-    <t>2.0971%</t>
-  </si>
-  <si>
-    <t>2.0267%</t>
-  </si>
-  <si>
-    <t>2.0018%</t>
-  </si>
-  <si>
-    <t>1.9955%</t>
-  </si>
-  <si>
-    <t>1.9947%</t>
-  </si>
-  <si>
-    <t>1.9914%</t>
-  </si>
-  <si>
-    <t>1.9899%</t>
-  </si>
-  <si>
-    <t>1.9897%</t>
-  </si>
-  <si>
-    <t>1.9863%</t>
-  </si>
-  <si>
-    <t>1.9853%</t>
-  </si>
-  <si>
-    <t>1.9852%</t>
-  </si>
-  <si>
-    <t>1.9850%</t>
-  </si>
-  <si>
-    <t>1.9839%</t>
-  </si>
-  <si>
-    <t>1.9826%</t>
-  </si>
-  <si>
-    <t>1.9823%</t>
-  </si>
-  <si>
-    <t>1.9820%</t>
-  </si>
-  <si>
-    <t>1.9817%</t>
-  </si>
-  <si>
-    <t>1.9815%</t>
-  </si>
-  <si>
-    <t>1.9813%</t>
-  </si>
-  <si>
-    <t>1.9811%</t>
-  </si>
-  <si>
-    <t>1.9810%</t>
-  </si>
-  <si>
-    <t>1.9807%</t>
-  </si>
-  <si>
-    <t>1.9806%</t>
-  </si>
-  <si>
-    <t>1.9805%</t>
-  </si>
-  <si>
-    <t>1.9804%</t>
-  </si>
-  <si>
-    <t>1.9803%</t>
-  </si>
-  <si>
-    <t>1.9802%</t>
-  </si>
-  <si>
-    <t>1.9801%</t>
-  </si>
-  <si>
-    <t>1.9800%</t>
-  </si>
-  <si>
-    <t>1.9799%</t>
-  </si>
-  <si>
-    <t>1.9798%</t>
+    <t>安纳达</t>
+  </si>
+  <si>
+    <t>潮宏基</t>
+  </si>
+  <si>
+    <t>东尼电子</t>
+  </si>
+  <si>
+    <t>中一科技</t>
+  </si>
+  <si>
+    <t>索通发展</t>
+  </si>
+  <si>
+    <t>和胜股份</t>
+  </si>
+  <si>
+    <t>广信股份</t>
+  </si>
+  <si>
+    <t>永和股份</t>
+  </si>
+  <si>
+    <t>东方电热</t>
+  </si>
+  <si>
+    <t>卫星化学</t>
+  </si>
+  <si>
+    <t>雅化集团</t>
+  </si>
+  <si>
+    <t>华伍股份</t>
+  </si>
+  <si>
+    <t>梅花生物</t>
+  </si>
+  <si>
+    <t>楚天科技</t>
+  </si>
+  <si>
+    <t>江南化工</t>
+  </si>
+  <si>
+    <t>贝特瑞</t>
+  </si>
+  <si>
+    <t>金钟股份</t>
+  </si>
+  <si>
+    <t>建龙微纳</t>
+  </si>
+  <si>
+    <t>运达股份</t>
+  </si>
+  <si>
+    <t>中环股份</t>
+  </si>
+  <si>
+    <t>蔚蓝锂芯</t>
+  </si>
+  <si>
+    <t>大族数控</t>
+  </si>
+  <si>
+    <t>金莱特</t>
+  </si>
+  <si>
+    <t>安彩高科</t>
+  </si>
+  <si>
+    <t>4.2477%</t>
+  </si>
+  <si>
+    <t>2.6025%</t>
+  </si>
+  <si>
+    <t>2.4572%</t>
+  </si>
+  <si>
+    <t>2.3208%</t>
+  </si>
+  <si>
+    <t>2.2362%</t>
+  </si>
+  <si>
+    <t>2.1337%</t>
+  </si>
+  <si>
+    <t>2.1150%</t>
+  </si>
+  <si>
+    <t>2.0878%</t>
+  </si>
+  <si>
+    <t>2.0735%</t>
+  </si>
+  <si>
+    <t>2.0329%</t>
+  </si>
+  <si>
+    <t>2.0084%</t>
+  </si>
+  <si>
+    <t>2.0032%</t>
+  </si>
+  <si>
+    <t>1.9916%</t>
+  </si>
+  <si>
+    <t>1.9898%</t>
+  </si>
+  <si>
+    <t>1.9887%</t>
+  </si>
+  <si>
+    <t>1.9744%</t>
+  </si>
+  <si>
+    <t>1.9672%</t>
+  </si>
+  <si>
+    <t>1.9644%</t>
+  </si>
+  <si>
+    <t>1.9598%</t>
+  </si>
+  <si>
+    <t>1.9593%</t>
+  </si>
+  <si>
+    <t>1.9571%</t>
+  </si>
+  <si>
+    <t>1.9505%</t>
+  </si>
+  <si>
+    <t>1.9385%</t>
+  </si>
+  <si>
+    <t>1.9105%</t>
+  </si>
+  <si>
+    <t>1.9057%</t>
+  </si>
+  <si>
+    <t>1.9039%</t>
+  </si>
+  <si>
+    <t>1.9018%</t>
+  </si>
+  <si>
+    <t>1.8931%</t>
+  </si>
+  <si>
+    <t>1.8754%</t>
+  </si>
+  <si>
+    <t>1.8724%</t>
+  </si>
+  <si>
+    <t>1.8627%</t>
+  </si>
+  <si>
+    <t>1.8622%</t>
+  </si>
+  <si>
+    <t>1.8600%</t>
+  </si>
+  <si>
+    <t>1.8594%</t>
+  </si>
+  <si>
+    <t>1.8592%</t>
+  </si>
+  <si>
+    <t>1.8561%</t>
+  </si>
+  <si>
+    <t>1.8530%</t>
+  </si>
+  <si>
+    <t>1.8517%</t>
+  </si>
+  <si>
+    <t>1.8494%</t>
+  </si>
+  <si>
+    <t>1.8472%</t>
+  </si>
+  <si>
+    <t>1.8388%</t>
+  </si>
+  <si>
+    <t>1.8322%</t>
+  </si>
+  <si>
+    <t>1.8212%</t>
+  </si>
+  <si>
+    <t>1.8211%</t>
+  </si>
+  <si>
+    <t>1.8200%</t>
+  </si>
+  <si>
+    <t>1.8187%</t>
+  </si>
+  <si>
+    <t>1.8172%</t>
+  </si>
+  <si>
+    <t>1.8163%</t>
+  </si>
+  <si>
+    <t>1.8157%</t>
+  </si>
+  <si>
+    <t>1.8154%</t>
   </si>
   <si>
     <t>2022-05-16</t>
@@ -834,22 +888,22 @@
         <v>58</v>
       </c>
       <c r="C2">
-        <v>34.51582786570617</v>
+        <v>56.58166119941223</v>
       </c>
       <c r="D2" t="s">
         <v>108</v>
       </c>
       <c r="E2" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="F2">
-        <v>3.19</v>
+        <v>10.6</v>
       </c>
       <c r="G2">
-        <v>26715.70104110773</v>
+        <v>42476.59509622867</v>
       </c>
       <c r="H2">
-        <v>8374</v>
+        <v>4007</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -860,22 +914,22 @@
         <v>59</v>
       </c>
       <c r="C3">
-        <v>27.0937289719979</v>
+        <v>34.66668545061446</v>
       </c>
       <c r="D3" t="s">
         <v>109</v>
       </c>
       <c r="E3" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="F3">
-        <v>20.12</v>
+        <v>22.26</v>
       </c>
       <c r="G3">
-        <v>20970.8996730705</v>
+        <v>26024.73540012234</v>
       </c>
       <c r="H3">
-        <v>1042</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -886,22 +940,22 @@
         <v>60</v>
       </c>
       <c r="C4">
-        <v>26.18474155960208</v>
+        <v>32.73177709431537</v>
       </c>
       <c r="D4" t="s">
         <v>110</v>
       </c>
       <c r="E4" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="F4">
-        <v>2.33</v>
+        <v>39.02</v>
       </c>
       <c r="G4">
-        <v>20267.33155776462</v>
+        <v>24572.17432191067</v>
       </c>
       <c r="H4">
-        <v>8698</v>
+        <v>629</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -912,22 +966,22 @@
         <v>61</v>
       </c>
       <c r="C5">
-        <v>25.86287868637632</v>
+        <v>30.91471349319341</v>
       </c>
       <c r="D5" t="s">
         <v>111</v>
       </c>
       <c r="E5" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="F5">
-        <v>14.79</v>
+        <v>11.28</v>
       </c>
       <c r="G5">
-        <v>20018.20549505543</v>
+        <v>23208.08084687225</v>
       </c>
       <c r="H5">
-        <v>1353</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -938,22 +992,22 @@
         <v>62</v>
       </c>
       <c r="C6">
-        <v>25.78069635670617</v>
+        <v>29.7880661175622</v>
       </c>
       <c r="D6" t="s">
         <v>112</v>
       </c>
       <c r="E6" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="F6">
-        <v>7.48</v>
+        <v>7.83</v>
       </c>
       <c r="G6">
-        <v>19954.59529978873</v>
+        <v>22362.29188669564</v>
       </c>
       <c r="H6">
-        <v>2667</v>
+        <v>2855</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -964,22 +1018,22 @@
         <v>63</v>
       </c>
       <c r="C7">
-        <v>25.7709718874396</v>
+        <v>28.42203760653388</v>
       </c>
       <c r="D7" t="s">
         <v>113</v>
       </c>
       <c r="E7" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="F7">
-        <v>11.28</v>
+        <v>10.7</v>
       </c>
       <c r="G7">
-        <v>19947.06843371674</v>
+        <v>21336.79636883947</v>
       </c>
       <c r="H7">
-        <v>1768</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -990,22 +1044,22 @@
         <v>64</v>
       </c>
       <c r="C8">
-        <v>25.770869256255</v>
+        <v>28.17256951203255</v>
       </c>
       <c r="D8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E8" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="F8">
-        <v>9.92</v>
+        <v>7.7</v>
       </c>
       <c r="G8">
-        <v>19946.98899584099</v>
+        <v>21149.51739867606</v>
       </c>
       <c r="H8">
-        <v>2010</v>
+        <v>2746</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1016,22 +1070,22 @@
         <v>65</v>
       </c>
       <c r="C9">
-        <v>25.72768549420041</v>
+        <v>27.81119850969944</v>
       </c>
       <c r="D9" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E9" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="F9">
-        <v>18.15</v>
+        <v>5.1</v>
       </c>
       <c r="G9">
-        <v>19913.56420066096</v>
+        <v>20878.23144806524</v>
       </c>
       <c r="H9">
-        <v>1097</v>
+        <v>4093</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1042,22 +1096,22 @@
         <v>66</v>
       </c>
       <c r="C10">
-        <v>25.70915563229239</v>
+        <v>27.62020788080428</v>
       </c>
       <c r="D10" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E10" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="F10">
-        <v>5.1</v>
+        <v>9.19</v>
       </c>
       <c r="G10">
-        <v>19899.22184581454</v>
+        <v>20734.85227822854</v>
       </c>
       <c r="H10">
-        <v>3901</v>
+        <v>2256</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1068,22 +1122,22 @@
         <v>67</v>
       </c>
       <c r="C11">
-        <v>25.70629505446706</v>
+        <v>27.07897120771753</v>
       </c>
       <c r="D11" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E11" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="F11">
-        <v>24.4</v>
+        <v>12.74</v>
       </c>
       <c r="G11">
-        <v>19897.00772126032</v>
+        <v>20328.53880975486</v>
       </c>
       <c r="H11">
-        <v>815</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1094,22 +1148,22 @@
         <v>68</v>
       </c>
       <c r="C12">
-        <v>25.66285863529325</v>
+        <v>26.75296041041208</v>
       </c>
       <c r="D12" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E12" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="F12">
-        <v>11.9</v>
+        <v>2.33</v>
       </c>
       <c r="G12">
-        <v>19863.387366174</v>
+        <v>20083.79822878573</v>
       </c>
       <c r="H12">
-        <v>1669</v>
+        <v>8619</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1120,22 +1174,22 @@
         <v>69</v>
       </c>
       <c r="C13">
-        <v>25.64992090743665</v>
+        <v>26.6837893123307</v>
       </c>
       <c r="D13" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E13" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="F13">
-        <v>22.8</v>
+        <v>15.58</v>
       </c>
       <c r="G13">
-        <v>19853.37339603505</v>
+        <v>20031.87057831946</v>
       </c>
       <c r="H13">
-        <v>870</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1146,22 +1200,22 @@
         <v>70</v>
       </c>
       <c r="C14">
-        <v>25.64768627124328</v>
+        <v>26.52985101750355</v>
       </c>
       <c r="D14" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E14" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="F14">
-        <v>22.98</v>
+        <v>13.92</v>
       </c>
       <c r="G14">
-        <v>19851.64375846964</v>
+        <v>19916.30708158626</v>
       </c>
       <c r="H14">
-        <v>863</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1172,22 +1226,22 @@
         <v>71</v>
       </c>
       <c r="C15">
-        <v>25.64568812813394</v>
+        <v>26.50572857752195</v>
       </c>
       <c r="D15" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E15" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="F15">
-        <v>104.98</v>
+        <v>33.35</v>
       </c>
       <c r="G15">
-        <v>19850.09716963642</v>
+        <v>19898.19804954105</v>
       </c>
       <c r="H15">
-        <v>189</v>
+        <v>596</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1198,22 +1252,22 @@
         <v>72</v>
       </c>
       <c r="C16">
-        <v>25.63186224798738</v>
+        <v>26.49015869232862</v>
       </c>
       <c r="D16" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E16" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="F16">
-        <v>26.27</v>
+        <v>22.37</v>
       </c>
       <c r="G16">
-        <v>19839.39575803874</v>
+        <v>19886.50953253691</v>
       </c>
       <c r="H16">
-        <v>755</v>
+        <v>888</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1224,22 +1278,22 @@
         <v>73</v>
       </c>
       <c r="C17">
-        <v>25.61498090386247</v>
+        <v>26.30080871381675</v>
       </c>
       <c r="D17" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E17" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="F17">
-        <v>13.29</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="G17">
-        <v>19826.32937746204</v>
+        <v>19744.36202045906</v>
       </c>
       <c r="H17">
-        <v>1491</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1250,22 +1304,22 @@
         <v>74</v>
       </c>
       <c r="C18">
-        <v>25.61121240021274</v>
+        <v>26.20455575133107</v>
       </c>
       <c r="D18" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E18" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="F18">
-        <v>28.47</v>
+        <v>82.08</v>
       </c>
       <c r="G18">
-        <v>19823.41250647548</v>
+        <v>19672.10365922242</v>
       </c>
       <c r="H18">
-        <v>696</v>
+        <v>239</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1276,22 +1330,22 @@
         <v>75</v>
       </c>
       <c r="C19">
-        <v>25.60663666042552</v>
+        <v>26.16726103404969</v>
       </c>
       <c r="D19" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E19" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="F19">
-        <v>17.25</v>
+        <v>5.94</v>
       </c>
       <c r="G19">
-        <v>19819.87082418778</v>
+        <v>19644.10602586191</v>
       </c>
       <c r="H19">
-        <v>1148</v>
+        <v>3307</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1302,22 +1356,22 @@
         <v>76</v>
       </c>
       <c r="C20">
-        <v>25.60261559406468</v>
+        <v>26.10565553014386</v>
       </c>
       <c r="D20" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E20" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="F20">
-        <v>41.6</v>
+        <v>212.39</v>
       </c>
       <c r="G20">
-        <v>19816.75846636804</v>
+        <v>19597.85796616135</v>
       </c>
       <c r="H20">
-        <v>476</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1328,22 +1382,22 @@
         <v>77</v>
       </c>
       <c r="C21">
-        <v>25.60002041143314</v>
+        <v>26.09898731814191</v>
       </c>
       <c r="D21" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E21" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="F21">
-        <v>58.04</v>
+        <v>18.01</v>
       </c>
       <c r="G21">
-        <v>19814.74976115602</v>
+        <v>19592.85205196197</v>
       </c>
       <c r="H21">
-        <v>341</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1354,22 +1408,22 @@
         <v>78</v>
       </c>
       <c r="C22">
-        <v>25.59752998775526</v>
+        <v>26.06940444045047</v>
       </c>
       <c r="D22" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E22" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="F22">
-        <v>10.27</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="G22">
-        <v>19812.82214074074</v>
+        <v>19570.64379771768</v>
       </c>
       <c r="H22">
-        <v>1929</v>
+        <v>211</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1380,22 +1434,22 @@
         <v>79</v>
       </c>
       <c r="C23">
-        <v>25.59714940871402</v>
+        <v>25.98159868553427</v>
       </c>
       <c r="D23" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E23" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="F23">
-        <v>32.3</v>
+        <v>91.65000000000001</v>
       </c>
       <c r="G23">
-        <v>19812.52756759801</v>
+        <v>19504.7268659834</v>
       </c>
       <c r="H23">
-        <v>613</v>
+        <v>212</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1406,22 +1460,22 @@
         <v>80</v>
       </c>
       <c r="C24">
-        <v>25.59518022536806</v>
+        <v>25.82148828147391</v>
       </c>
       <c r="D24" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E24" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="F24">
-        <v>6.55</v>
+        <v>23.01</v>
       </c>
       <c r="G24">
-        <v>19811.00339399944</v>
+        <v>19384.52988590541</v>
       </c>
       <c r="H24">
-        <v>3024</v>
+        <v>842</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1432,22 +1486,22 @@
         <v>81</v>
       </c>
       <c r="C25">
-        <v>25.59502329754269</v>
+        <v>25.44926059333287</v>
       </c>
       <c r="D25" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E25" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="F25">
-        <v>10.01</v>
+        <v>8.859999999999999</v>
       </c>
       <c r="G25">
-        <v>19810.88192981542</v>
+        <v>19105.09367887979</v>
       </c>
       <c r="H25">
-        <v>1979</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1458,22 +1512,22 @@
         <v>82</v>
       </c>
       <c r="C26">
-        <v>25.59364222206786</v>
+        <v>25.3846014724273</v>
       </c>
       <c r="D26" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E26" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="F26">
-        <v>36.8</v>
+        <v>41.35</v>
       </c>
       <c r="G26">
-        <v>19809.8129593812</v>
+        <v>19056.55322885121</v>
       </c>
       <c r="H26">
-        <v>538</v>
+        <v>460</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1484,22 +1538,22 @@
         <v>83</v>
       </c>
       <c r="C27">
-        <v>25.59016145939438</v>
+        <v>25.3608560975132</v>
       </c>
       <c r="D27" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E27" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="F27">
-        <v>30.71</v>
+        <v>15.86</v>
       </c>
       <c r="G27">
-        <v>19807.11880366397</v>
+        <v>19038.72726449715</v>
       </c>
       <c r="H27">
-        <v>644</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1510,22 +1564,22 @@
         <v>84</v>
       </c>
       <c r="C28">
-        <v>25.58914814744078</v>
+        <v>25.33296573946309</v>
       </c>
       <c r="D28" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E28" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="F28">
-        <v>32.5</v>
+        <v>13.96</v>
       </c>
       <c r="G28">
-        <v>19806.33448699281</v>
+        <v>19017.78960694397</v>
       </c>
       <c r="H28">
-        <v>609</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1536,22 +1590,22 @@
         <v>85</v>
       </c>
       <c r="C29">
-        <v>25.58910463234226</v>
+        <v>25.21773186182685</v>
       </c>
       <c r="D29" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E29" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="F29">
-        <v>3.41</v>
+        <v>4.2</v>
       </c>
       <c r="G29">
-        <v>19806.30080573888</v>
+        <v>18931.28202378072</v>
       </c>
       <c r="H29">
-        <v>5808</v>
+        <v>4507</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1562,22 +1616,22 @@
         <v>86</v>
       </c>
       <c r="C30">
-        <v>25.58873159941367</v>
+        <v>24.98197152447067</v>
       </c>
       <c r="D30" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="E30" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="F30">
-        <v>17.41</v>
+        <v>33.2</v>
       </c>
       <c r="G30">
-        <v>19806.01207338579</v>
+        <v>18754.29364667502</v>
       </c>
       <c r="H30">
-        <v>1137</v>
+        <v>564</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1588,22 +1642,22 @@
         <v>87</v>
       </c>
       <c r="C31">
-        <v>25.58850046536114</v>
+        <v>24.94129378740123</v>
       </c>
       <c r="D31" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="E31" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="F31">
-        <v>31.5</v>
+        <v>102.71</v>
       </c>
       <c r="G31">
-        <v>19805.83317261389</v>
+        <v>18723.75633599339</v>
       </c>
       <c r="H31">
-        <v>628</v>
+        <v>182</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1614,22 +1668,22 @@
         <v>88</v>
       </c>
       <c r="C32">
-        <v>25.5879624820642</v>
+        <v>24.81271143340365</v>
       </c>
       <c r="D32" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="E32" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="F32">
-        <v>30.3</v>
+        <v>17.37</v>
       </c>
       <c r="G32">
-        <v>19805.41676652385</v>
+        <v>18627.22787656858</v>
       </c>
       <c r="H32">
-        <v>653</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1640,22 +1694,22 @@
         <v>89</v>
       </c>
       <c r="C33">
-        <v>25.58765347297281</v>
+        <v>24.80510420157415</v>
       </c>
       <c r="D33" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="E33" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="F33">
-        <v>20.29</v>
+        <v>28.28</v>
       </c>
       <c r="G33">
-        <v>19805.17758945597</v>
+        <v>18621.51702787</v>
       </c>
       <c r="H33">
-        <v>976</v>
+        <v>658</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1666,22 +1720,22 @@
         <v>90</v>
       </c>
       <c r="C34">
-        <v>25.58603758026316</v>
+        <v>24.7763813660065</v>
       </c>
       <c r="D34" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="E34" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="F34">
-        <v>10.68</v>
+        <v>37.65</v>
       </c>
       <c r="G34">
-        <v>19803.92686741871</v>
+        <v>18599.95441852697</v>
       </c>
       <c r="H34">
-        <v>1854</v>
+        <v>494</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1692,22 +1746,22 @@
         <v>91</v>
       </c>
       <c r="C35">
-        <v>25.58464372553905</v>
+        <v>24.76826600511285</v>
       </c>
       <c r="D35" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E35" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="F35">
-        <v>28.85</v>
+        <v>21.02</v>
       </c>
       <c r="G35">
-        <v>19802.84800567884</v>
+        <v>18593.86211067611</v>
       </c>
       <c r="H35">
-        <v>686</v>
+        <v>884</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1718,22 +1772,22 @@
         <v>92</v>
       </c>
       <c r="C36">
-        <v>25.58439896492861</v>
+        <v>24.76515316705487</v>
       </c>
       <c r="D36" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E36" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="F36">
-        <v>20.17</v>
+        <v>4.08</v>
       </c>
       <c r="G36">
-        <v>19802.65855777336</v>
+        <v>18591.52526232302</v>
       </c>
       <c r="H36">
-        <v>981</v>
+        <v>4556</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1744,22 +1798,22 @@
         <v>93</v>
       </c>
       <c r="C37">
-        <v>25.58430877290682</v>
+        <v>24.72425363760969</v>
       </c>
       <c r="D37" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="E37" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="F37">
-        <v>57.69</v>
+        <v>36</v>
       </c>
       <c r="G37">
-        <v>19802.58874797191</v>
+        <v>18560.82144919625</v>
       </c>
       <c r="H37">
-        <v>343</v>
+        <v>515</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1770,22 +1824,22 @@
         <v>94</v>
       </c>
       <c r="C38">
-        <v>25.58419690804294</v>
+        <v>24.68295833650303</v>
       </c>
       <c r="D38" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="E38" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="F38">
-        <v>12.63</v>
+        <v>27.2</v>
       </c>
       <c r="G38">
-        <v>19802.50216310794</v>
+        <v>18529.8205250929</v>
       </c>
       <c r="H38">
-        <v>1567</v>
+        <v>681</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1796,22 +1850,22 @@
         <v>95</v>
       </c>
       <c r="C39">
-        <v>25.58372788014763</v>
+        <v>24.66629297296218</v>
       </c>
       <c r="D39" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="E39" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="F39">
-        <v>27.75</v>
+        <v>10.28</v>
       </c>
       <c r="G39">
-        <v>19802.13912939831</v>
+        <v>18517.30961812675</v>
       </c>
       <c r="H39">
-        <v>713</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1822,22 +1876,22 @@
         <v>96</v>
       </c>
       <c r="C40">
-        <v>25.58348972386849</v>
+        <v>24.63494389654167</v>
       </c>
       <c r="D40" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="E40" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="F40">
-        <v>15.7</v>
+        <v>9.08</v>
       </c>
       <c r="G40">
-        <v>19801.95479333141</v>
+        <v>18493.77545533394</v>
       </c>
       <c r="H40">
-        <v>1261</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1848,22 +1902,22 @@
         <v>97</v>
       </c>
       <c r="C41">
-        <v>25.58311773313108</v>
+        <v>24.60534857159072</v>
       </c>
       <c r="D41" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="E41" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="F41">
-        <v>7.08</v>
+        <v>15.31</v>
       </c>
       <c r="G41">
-        <v>19801.66686764788</v>
+        <v>18471.5578567687</v>
       </c>
       <c r="H41">
-        <v>2796</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1874,22 +1928,22 @@
         <v>98</v>
       </c>
       <c r="C42">
-        <v>25.58284147456876</v>
+        <v>24.49414445628222</v>
       </c>
       <c r="D42" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="E42" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="F42">
-        <v>28.76</v>
+        <v>5.15</v>
       </c>
       <c r="G42">
-        <v>19801.45303991675</v>
+        <v>18388.07546903275</v>
       </c>
       <c r="H42">
-        <v>688</v>
+        <v>3570</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1900,22 +1954,22 @@
         <v>99</v>
       </c>
       <c r="C43">
-        <v>25.58260784682043</v>
+        <v>24.40617581594027</v>
       </c>
       <c r="D43" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="E43" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="F43">
-        <v>2.7</v>
+        <v>65.37</v>
       </c>
       <c r="G43">
-        <v>19801.27220899177</v>
+        <v>18322.03625707321</v>
       </c>
       <c r="H43">
-        <v>7333</v>
+        <v>280</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1926,22 +1980,22 @@
         <v>100</v>
       </c>
       <c r="C44">
-        <v>25.58066191622424</v>
+        <v>24.25953206730095</v>
       </c>
       <c r="D44" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="E44" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="F44">
-        <v>21.41</v>
+        <v>27.52</v>
       </c>
       <c r="G44">
-        <v>19799.76603332486</v>
+        <v>18211.94887182673</v>
       </c>
       <c r="H44">
-        <v>924</v>
+        <v>661</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1952,22 +2006,22 @@
         <v>101</v>
       </c>
       <c r="C45">
-        <v>25.57935938007986</v>
+        <v>24.25839371997267</v>
       </c>
       <c r="D45" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="E45" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="F45">
-        <v>15.86</v>
+        <v>102.29</v>
       </c>
       <c r="G45">
-        <v>19798.75785335699</v>
+        <v>18211.09429955866</v>
       </c>
       <c r="H45">
-        <v>1248</v>
+        <v>178</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1978,22 +2032,22 @@
         <v>102</v>
       </c>
       <c r="C46">
-        <v>25.57922208319515</v>
+        <v>24.24420482667563</v>
       </c>
       <c r="D46" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="E46" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="F46">
-        <v>22.56</v>
+        <v>16.49</v>
       </c>
       <c r="G46">
-        <v>19798.65158377713</v>
+        <v>18200.44251128193</v>
       </c>
       <c r="H46">
-        <v>877</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2004,22 +2058,22 @@
         <v>103</v>
       </c>
       <c r="C47">
-        <v>25.57901252594956</v>
+        <v>24.22589971860157</v>
       </c>
       <c r="D47" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="E47" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="F47">
-        <v>8.359999999999999</v>
+        <v>39.55</v>
       </c>
       <c r="G47">
-        <v>19798.48938373529</v>
+        <v>18186.70062659045</v>
       </c>
       <c r="H47">
-        <v>2368</v>
+        <v>459</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2030,22 +2084,22 @@
         <v>104</v>
       </c>
       <c r="C48">
-        <v>25.57890700134319</v>
+        <v>24.20612504090576</v>
       </c>
       <c r="D48" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="E48" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="F48">
-        <v>4.68</v>
+        <v>19.42</v>
       </c>
       <c r="G48">
-        <v>19798.40770631335</v>
+        <v>18171.85551671142</v>
       </c>
       <c r="H48">
-        <v>4230</v>
+        <v>935</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2056,22 +2110,22 @@
         <v>105</v>
       </c>
       <c r="C49">
-        <v>25.57850372272777</v>
+        <v>24.1942279721767</v>
       </c>
       <c r="D49" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="E49" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="F49">
-        <v>15.94</v>
+        <v>51.28</v>
       </c>
       <c r="G49">
-        <v>19798.09556340408</v>
+        <v>18162.92423119375</v>
       </c>
       <c r="H49">
-        <v>1242</v>
+        <v>354</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2082,22 +2136,22 @@
         <v>106</v>
       </c>
       <c r="C50">
-        <v>25.57838791539157</v>
+        <v>24.18602712169813</v>
       </c>
       <c r="D50" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="E50" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="F50">
-        <v>8.77</v>
+        <v>15.99</v>
       </c>
       <c r="G50">
-        <v>19798.00592701511</v>
+        <v>18156.76774519035</v>
       </c>
       <c r="H50">
-        <v>2257</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2108,22 +2162,22 @@
         <v>107</v>
       </c>
       <c r="C51">
-        <v>25.5783430877588</v>
+        <v>24.18181744541851</v>
       </c>
       <c r="D51" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="E51" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="F51">
-        <v>7.28</v>
+        <v>5.22</v>
       </c>
       <c r="G51">
-        <v>19797.97122984254</v>
+        <v>18153.60748599992</v>
       </c>
       <c r="H51">
-        <v>2719</v>
+        <v>3477</v>
       </c>
     </row>
   </sheetData>

--- a/anlysis/2022-05-16回测-50.xlsx
+++ b/anlysis/2022-05-16回测-50.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6b433d91557f6a2e/A_Quant/蓝楹会量化组/Work/Quant_Stock_2/anlysis/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="6" documentId="11_FFC65FC096C168E1A8170B091B7A6E404F18C2F0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{04FCE0E9-BD21-FA48-A28D-9BB79DFA2FEF}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="1700" yWindow="1820" windowWidth="27120" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -496,8 +502,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -560,6 +566,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -606,7 +620,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -638,9 +652,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -672,6 +704,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -847,14 +897,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="17.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
+    <col min="6" max="6" width="14.5" customWidth="1"/>
+    <col min="7" max="7" width="17.5" customWidth="1"/>
+    <col min="8" max="8" width="18.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -880,7 +940,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -888,7 +948,7 @@
         <v>58</v>
       </c>
       <c r="C2">
-        <v>56.58166119941223</v>
+        <v>56.581661199412231</v>
       </c>
       <c r="D2" t="s">
         <v>108</v>
@@ -900,13 +960,13 @@
         <v>10.6</v>
       </c>
       <c r="G2">
-        <v>42476.59509622867</v>
+        <v>42476.595096228673</v>
       </c>
       <c r="H2">
         <v>4007</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -914,7 +974,7 @@
         <v>59</v>
       </c>
       <c r="C3">
-        <v>34.66668545061446</v>
+        <v>34.666685450614459</v>
       </c>
       <c r="D3" t="s">
         <v>109</v>
@@ -926,13 +986,13 @@
         <v>22.26</v>
       </c>
       <c r="G3">
-        <v>26024.73540012234</v>
+        <v>26024.735400122339</v>
       </c>
       <c r="H3">
         <v>1169</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -940,7 +1000,7 @@
         <v>60</v>
       </c>
       <c r="C4">
-        <v>32.73177709431537</v>
+        <v>32.731777094315369</v>
       </c>
       <c r="D4" t="s">
         <v>110</v>
@@ -949,16 +1009,16 @@
         <v>158</v>
       </c>
       <c r="F4">
-        <v>39.02</v>
+        <v>39.020000000000003</v>
       </c>
       <c r="G4">
-        <v>24572.17432191067</v>
+        <v>24572.174321910668</v>
       </c>
       <c r="H4">
         <v>629</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -984,7 +1044,7 @@
         <v>2057</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -992,7 +1052,7 @@
         <v>62</v>
       </c>
       <c r="C6">
-        <v>29.7880661175622</v>
+        <v>29.788066117562199</v>
       </c>
       <c r="D6" t="s">
         <v>112</v>
@@ -1004,13 +1064,13 @@
         <v>7.83</v>
       </c>
       <c r="G6">
-        <v>22362.29188669564</v>
+        <v>22362.291886695639</v>
       </c>
       <c r="H6">
         <v>2855</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -1036,7 +1096,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -1044,7 +1104,7 @@
         <v>64</v>
       </c>
       <c r="C8">
-        <v>28.17256951203255</v>
+        <v>28.172569512032549</v>
       </c>
       <c r="D8" t="s">
         <v>114</v>
@@ -1062,7 +1122,7 @@
         <v>2746</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
@@ -1070,7 +1130,7 @@
         <v>65</v>
       </c>
       <c r="C9">
-        <v>27.81119850969944</v>
+        <v>27.811198509699441</v>
       </c>
       <c r="D9" t="s">
         <v>115</v>
@@ -1079,16 +1139,16 @@
         <v>158</v>
       </c>
       <c r="F9">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="G9">
-        <v>20878.23144806524</v>
+        <v>20878.231448065239</v>
       </c>
       <c r="H9">
         <v>4093</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
@@ -1114,7 +1174,7 @@
         <v>2256</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
@@ -1140,7 +1200,7 @@
         <v>1595</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>18</v>
       </c>
@@ -1148,7 +1208,7 @@
         <v>68</v>
       </c>
       <c r="C12">
-        <v>26.75296041041208</v>
+        <v>26.752960410412079</v>
       </c>
       <c r="D12" t="s">
         <v>118</v>
@@ -1166,7 +1226,7 @@
         <v>8619</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>19</v>
       </c>
@@ -1174,7 +1234,7 @@
         <v>69</v>
       </c>
       <c r="C13">
-        <v>26.6837893123307</v>
+        <v>26.683789312330699</v>
       </c>
       <c r="D13" t="s">
         <v>119</v>
@@ -1192,7 +1252,7 @@
         <v>1285</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>20</v>
       </c>
@@ -1212,13 +1272,13 @@
         <v>13.92</v>
       </c>
       <c r="G14">
-        <v>19916.30708158626</v>
+        <v>19916.307081586259</v>
       </c>
       <c r="H14">
         <v>1430</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>21</v>
       </c>
@@ -1244,7 +1304,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>22</v>
       </c>
@@ -1264,13 +1324,13 @@
         <v>22.37</v>
       </c>
       <c r="G16">
-        <v>19886.50953253691</v>
+        <v>19886.509532536911</v>
       </c>
       <c r="H16">
         <v>888</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>23</v>
       </c>
@@ -1287,16 +1347,16 @@
         <v>158</v>
       </c>
       <c r="F17">
-        <v>8.720000000000001</v>
+        <v>8.7200000000000006</v>
       </c>
       <c r="G17">
-        <v>19744.36202045906</v>
+        <v>19744.362020459059</v>
       </c>
       <c r="H17">
         <v>2264</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>24</v>
       </c>
@@ -1304,7 +1364,7 @@
         <v>74</v>
       </c>
       <c r="C18">
-        <v>26.20455575133107</v>
+        <v>26.204555751331071</v>
       </c>
       <c r="D18" t="s">
         <v>124</v>
@@ -1316,13 +1376,13 @@
         <v>82.08</v>
       </c>
       <c r="G18">
-        <v>19672.10365922242</v>
+        <v>19672.103659222419</v>
       </c>
       <c r="H18">
         <v>239</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>25</v>
       </c>
@@ -1330,7 +1390,7 @@
         <v>75</v>
       </c>
       <c r="C19">
-        <v>26.16726103404969</v>
+        <v>26.167261034049691</v>
       </c>
       <c r="D19" t="s">
         <v>125</v>
@@ -1342,13 +1402,13 @@
         <v>5.94</v>
       </c>
       <c r="G19">
-        <v>19644.10602586191</v>
+        <v>19644.106025861911</v>
       </c>
       <c r="H19">
         <v>3307</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>26</v>
       </c>
@@ -1368,13 +1428,13 @@
         <v>212.39</v>
       </c>
       <c r="G20">
-        <v>19597.85796616135</v>
+        <v>19597.857966161351</v>
       </c>
       <c r="H20">
         <v>92</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>27</v>
       </c>
@@ -1382,7 +1442,7 @@
         <v>77</v>
       </c>
       <c r="C21">
-        <v>26.09898731814191</v>
+        <v>26.098987318141909</v>
       </c>
       <c r="D21" t="s">
         <v>127</v>
@@ -1391,16 +1451,16 @@
         <v>158</v>
       </c>
       <c r="F21">
-        <v>18.01</v>
+        <v>18.010000000000002</v>
       </c>
       <c r="G21">
-        <v>19592.85205196197</v>
+        <v>19592.852051961971</v>
       </c>
       <c r="H21">
         <v>1087</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>28</v>
       </c>
@@ -1408,7 +1468,7 @@
         <v>78</v>
       </c>
       <c r="C22">
-        <v>26.06940444045047</v>
+        <v>26.069404440450469</v>
       </c>
       <c r="D22" t="s">
         <v>128</v>
@@ -1417,16 +1477,16 @@
         <v>158</v>
       </c>
       <c r="F22">
-        <v>92.59999999999999</v>
+        <v>92.6</v>
       </c>
       <c r="G22">
-        <v>19570.64379771768</v>
+        <v>19570.643797717679</v>
       </c>
       <c r="H22">
         <v>211</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>29</v>
       </c>
@@ -1434,7 +1494,7 @@
         <v>79</v>
       </c>
       <c r="C23">
-        <v>25.98159868553427</v>
+        <v>25.981598685534269</v>
       </c>
       <c r="D23" t="s">
         <v>129</v>
@@ -1443,16 +1503,16 @@
         <v>158</v>
       </c>
       <c r="F23">
-        <v>91.65000000000001</v>
+        <v>91.65</v>
       </c>
       <c r="G23">
-        <v>19504.7268659834</v>
+        <v>19504.726865983401</v>
       </c>
       <c r="H23">
         <v>212</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>30</v>
       </c>
@@ -1460,7 +1520,7 @@
         <v>80</v>
       </c>
       <c r="C24">
-        <v>25.82148828147391</v>
+        <v>25.821488281473911</v>
       </c>
       <c r="D24" t="s">
         <v>130</v>
@@ -1472,13 +1532,13 @@
         <v>23.01</v>
       </c>
       <c r="G24">
-        <v>19384.52988590541</v>
+        <v>19384.529885905409</v>
       </c>
       <c r="H24">
         <v>842</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>31</v>
       </c>
@@ -1495,16 +1555,16 @@
         <v>158</v>
       </c>
       <c r="F25">
-        <v>8.859999999999999</v>
+        <v>8.86</v>
       </c>
       <c r="G25">
-        <v>19105.09367887979</v>
+        <v>19105.093678879792</v>
       </c>
       <c r="H25">
         <v>2156</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>32</v>
       </c>
@@ -1512,7 +1572,7 @@
         <v>82</v>
       </c>
       <c r="C26">
-        <v>25.3846014724273</v>
+        <v>25.384601472427299</v>
       </c>
       <c r="D26" t="s">
         <v>132</v>
@@ -1524,13 +1584,13 @@
         <v>41.35</v>
       </c>
       <c r="G26">
-        <v>19056.55322885121</v>
+        <v>19056.553228851211</v>
       </c>
       <c r="H26">
         <v>460</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>33</v>
       </c>
@@ -1538,7 +1598,7 @@
         <v>83</v>
       </c>
       <c r="C27">
-        <v>25.3608560975132</v>
+        <v>25.360856097513199</v>
       </c>
       <c r="D27" t="s">
         <v>133</v>
@@ -1550,13 +1610,13 @@
         <v>15.86</v>
       </c>
       <c r="G27">
-        <v>19038.72726449715</v>
+        <v>19038.727264497149</v>
       </c>
       <c r="H27">
         <v>1200</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>34</v>
       </c>
@@ -1564,7 +1624,7 @@
         <v>84</v>
       </c>
       <c r="C28">
-        <v>25.33296573946309</v>
+        <v>25.332965739463091</v>
       </c>
       <c r="D28" t="s">
         <v>134</v>
@@ -1582,7 +1642,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>35</v>
       </c>
@@ -1590,7 +1650,7 @@
         <v>85</v>
       </c>
       <c r="C29">
-        <v>25.21773186182685</v>
+        <v>25.217731861826849</v>
       </c>
       <c r="D29" t="s">
         <v>135</v>
@@ -1602,13 +1662,13 @@
         <v>4.2</v>
       </c>
       <c r="G29">
-        <v>18931.28202378072</v>
+        <v>18931.282023780721</v>
       </c>
       <c r="H29">
         <v>4507</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>36</v>
       </c>
@@ -1616,7 +1676,7 @@
         <v>86</v>
       </c>
       <c r="C30">
-        <v>24.98197152447067</v>
+        <v>24.981971524470669</v>
       </c>
       <c r="D30" t="s">
         <v>136</v>
@@ -1625,16 +1685,16 @@
         <v>158</v>
       </c>
       <c r="F30">
-        <v>33.2</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="G30">
-        <v>18754.29364667502</v>
+        <v>18754.293646675022</v>
       </c>
       <c r="H30">
         <v>564</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>37</v>
       </c>
@@ -1642,7 +1702,7 @@
         <v>87</v>
       </c>
       <c r="C31">
-        <v>24.94129378740123</v>
+        <v>24.941293787401229</v>
       </c>
       <c r="D31" t="s">
         <v>137</v>
@@ -1654,13 +1714,13 @@
         <v>102.71</v>
       </c>
       <c r="G31">
-        <v>18723.75633599339</v>
+        <v>18723.756335993388</v>
       </c>
       <c r="H31">
         <v>182</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>38</v>
       </c>
@@ -1668,7 +1728,7 @@
         <v>88</v>
       </c>
       <c r="C32">
-        <v>24.81271143340365</v>
+        <v>24.812711433403649</v>
       </c>
       <c r="D32" t="s">
         <v>138</v>
@@ -1680,13 +1740,13 @@
         <v>17.37</v>
       </c>
       <c r="G32">
-        <v>18627.22787656858</v>
+        <v>18627.227876568581</v>
       </c>
       <c r="H32">
         <v>1072</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>39</v>
       </c>
@@ -1694,7 +1754,7 @@
         <v>89</v>
       </c>
       <c r="C33">
-        <v>24.80510420157415</v>
+        <v>24.805104201574149</v>
       </c>
       <c r="D33" t="s">
         <v>139</v>
@@ -1706,13 +1766,13 @@
         <v>28.28</v>
       </c>
       <c r="G33">
-        <v>18621.51702787</v>
+        <v>18621.517027869999</v>
       </c>
       <c r="H33">
         <v>658</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>40</v>
       </c>
@@ -1738,7 +1798,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>41</v>
       </c>
@@ -1746,7 +1806,7 @@
         <v>91</v>
       </c>
       <c r="C35">
-        <v>24.76826600511285</v>
+        <v>24.768266005112849</v>
       </c>
       <c r="D35" t="s">
         <v>141</v>
@@ -1758,13 +1818,13 @@
         <v>21.02</v>
       </c>
       <c r="G35">
-        <v>18593.86211067611</v>
+        <v>18593.862110676109</v>
       </c>
       <c r="H35">
         <v>884</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>42</v>
       </c>
@@ -1772,7 +1832,7 @@
         <v>92</v>
       </c>
       <c r="C36">
-        <v>24.76515316705487</v>
+        <v>24.765153167054869</v>
       </c>
       <c r="D36" t="s">
         <v>142</v>
@@ -1784,13 +1844,13 @@
         <v>4.08</v>
       </c>
       <c r="G36">
-        <v>18591.52526232302</v>
+        <v>18591.525262323019</v>
       </c>
       <c r="H36">
         <v>4556</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>43</v>
       </c>
@@ -1798,7 +1858,7 @@
         <v>93</v>
       </c>
       <c r="C37">
-        <v>24.72425363760969</v>
+        <v>24.724253637609689</v>
       </c>
       <c r="D37" t="s">
         <v>143</v>
@@ -1816,7 +1876,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>44</v>
       </c>
@@ -1824,7 +1884,7 @@
         <v>94</v>
       </c>
       <c r="C38">
-        <v>24.68295833650303</v>
+        <v>24.682958336503031</v>
       </c>
       <c r="D38" t="s">
         <v>144</v>
@@ -1836,13 +1896,13 @@
         <v>27.2</v>
       </c>
       <c r="G38">
-        <v>18529.8205250929</v>
+        <v>18529.820525092899</v>
       </c>
       <c r="H38">
         <v>681</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>45</v>
       </c>
@@ -1850,7 +1910,7 @@
         <v>95</v>
       </c>
       <c r="C39">
-        <v>24.66629297296218</v>
+        <v>24.666292972962179</v>
       </c>
       <c r="D39" t="s">
         <v>145</v>
@@ -1868,7 +1928,7 @@
         <v>1801</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>46</v>
       </c>
@@ -1876,7 +1936,7 @@
         <v>96</v>
       </c>
       <c r="C40">
-        <v>24.63494389654167</v>
+        <v>24.634943896541671</v>
       </c>
       <c r="D40" t="s">
         <v>146</v>
@@ -1894,7 +1954,7 @@
         <v>2036</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>47</v>
       </c>
@@ -1902,7 +1962,7 @@
         <v>97</v>
       </c>
       <c r="C41">
-        <v>24.60534857159072</v>
+        <v>24.605348571590721</v>
       </c>
       <c r="D41" t="s">
         <v>147</v>
@@ -1914,13 +1974,13 @@
         <v>15.31</v>
       </c>
       <c r="G41">
-        <v>18471.5578567687</v>
+        <v>18471.557856768701</v>
       </c>
       <c r="H41">
         <v>1206</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>48</v>
       </c>
@@ -1928,7 +1988,7 @@
         <v>98</v>
       </c>
       <c r="C42">
-        <v>24.49414445628222</v>
+        <v>24.494144456282221</v>
       </c>
       <c r="D42" t="s">
         <v>148</v>
@@ -1940,13 +2000,13 @@
         <v>5.15</v>
       </c>
       <c r="G42">
-        <v>18388.07546903275</v>
+        <v>18388.075469032749</v>
       </c>
       <c r="H42">
         <v>3570</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>49</v>
       </c>
@@ -1954,7 +2014,7 @@
         <v>99</v>
       </c>
       <c r="C43">
-        <v>24.40617581594027</v>
+        <v>24.406175815940269</v>
       </c>
       <c r="D43" t="s">
         <v>149</v>
@@ -1972,7 +2032,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>50</v>
       </c>
@@ -1980,7 +2040,7 @@
         <v>100</v>
       </c>
       <c r="C44">
-        <v>24.25953206730095</v>
+        <v>24.259532067300949</v>
       </c>
       <c r="D44" t="s">
         <v>150</v>
@@ -1992,13 +2052,13 @@
         <v>27.52</v>
       </c>
       <c r="G44">
-        <v>18211.94887182673</v>
+        <v>18211.948871826731</v>
       </c>
       <c r="H44">
         <v>661</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>51</v>
       </c>
@@ -2018,13 +2078,13 @@
         <v>102.29</v>
       </c>
       <c r="G45">
-        <v>18211.09429955866</v>
+        <v>18211.094299558659</v>
       </c>
       <c r="H45">
         <v>178</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>52</v>
       </c>
@@ -2032,7 +2092,7 @@
         <v>102</v>
       </c>
       <c r="C46">
-        <v>24.24420482667563</v>
+        <v>24.244204826675631</v>
       </c>
       <c r="D46" t="s">
         <v>152</v>
@@ -2041,7 +2101,7 @@
         <v>158</v>
       </c>
       <c r="F46">
-        <v>16.49</v>
+        <v>16.489999999999998</v>
       </c>
       <c r="G46">
         <v>18200.44251128193</v>
@@ -2050,7 +2110,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>53</v>
       </c>
@@ -2058,7 +2118,7 @@
         <v>103</v>
       </c>
       <c r="C47">
-        <v>24.22589971860157</v>
+        <v>24.225899718601571</v>
       </c>
       <c r="D47" t="s">
         <v>153</v>
@@ -2067,16 +2127,16 @@
         <v>158</v>
       </c>
       <c r="F47">
-        <v>39.55</v>
+        <v>39.549999999999997</v>
       </c>
       <c r="G47">
-        <v>18186.70062659045</v>
+        <v>18186.700626590449</v>
       </c>
       <c r="H47">
         <v>459</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>54</v>
       </c>
@@ -2084,7 +2144,7 @@
         <v>104</v>
       </c>
       <c r="C48">
-        <v>24.20612504090576</v>
+        <v>24.206125040905761</v>
       </c>
       <c r="D48" t="s">
         <v>154</v>
@@ -2093,16 +2153,16 @@
         <v>158</v>
       </c>
       <c r="F48">
-        <v>19.42</v>
+        <v>19.420000000000002</v>
       </c>
       <c r="G48">
-        <v>18171.85551671142</v>
+        <v>18171.855516711421</v>
       </c>
       <c r="H48">
         <v>935</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>55</v>
       </c>
@@ -2110,7 +2170,7 @@
         <v>105</v>
       </c>
       <c r="C49">
-        <v>24.1942279721767</v>
+        <v>24.194227972176702</v>
       </c>
       <c r="D49" t="s">
         <v>155</v>
@@ -2122,13 +2182,13 @@
         <v>51.28</v>
       </c>
       <c r="G49">
-        <v>18162.92423119375</v>
+        <v>18162.924231193749</v>
       </c>
       <c r="H49">
         <v>354</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>56</v>
       </c>
@@ -2136,7 +2196,7 @@
         <v>106</v>
       </c>
       <c r="C50">
-        <v>24.18602712169813</v>
+        <v>24.186027121698132</v>
       </c>
       <c r="D50" t="s">
         <v>156</v>
@@ -2148,13 +2208,13 @@
         <v>15.99</v>
       </c>
       <c r="G50">
-        <v>18156.76774519035</v>
+        <v>18156.767745190351</v>
       </c>
       <c r="H50">
         <v>1135</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>57</v>
       </c>
@@ -2174,7 +2234,7 @@
         <v>5.22</v>
       </c>
       <c r="G51">
-        <v>18153.60748599992</v>
+        <v>18153.607485999921</v>
       </c>
       <c r="H51">
         <v>3477</v>

--- a/anlysis/2022-05-16回测-50.xlsx
+++ b/anlysis/2022-05-16回测-50.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
   <si>
     <t>股票名称</t>
   </si>
@@ -61,9 +61,6 @@
     <t>603329.SH</t>
   </si>
   <si>
-    <t>605368.SH</t>
-  </si>
-  <si>
     <t>002129.SZ</t>
   </si>
   <si>
@@ -76,9 +73,6 @@
     <t>601225.SH</t>
   </si>
   <si>
-    <t>300662.SZ</t>
-  </si>
-  <si>
     <t>300987.SZ</t>
   </si>
   <si>
@@ -103,9 +97,6 @@
     <t>上海雅仕</t>
   </si>
   <si>
-    <t>蓝天燃气</t>
-  </si>
-  <si>
     <t>中环股份</t>
   </si>
   <si>
@@ -118,52 +109,43 @@
     <t>陕西煤业</t>
   </si>
   <si>
-    <t>科锐国际</t>
-  </si>
-  <si>
     <t>川网传媒</t>
   </si>
   <si>
-    <t>9.5830%</t>
-  </si>
-  <si>
-    <t>9.4996%</t>
-  </si>
-  <si>
-    <t>8.8917%</t>
-  </si>
-  <si>
-    <t>8.0517%</t>
-  </si>
-  <si>
-    <t>7.6858%</t>
-  </si>
-  <si>
-    <t>7.2862%</t>
-  </si>
-  <si>
-    <t>7.1002%</t>
-  </si>
-  <si>
-    <t>6.9154%</t>
-  </si>
-  <si>
-    <t>6.6575%</t>
-  </si>
-  <si>
-    <t>6.3866%</t>
-  </si>
-  <si>
-    <t>6.1548%</t>
-  </si>
-  <si>
-    <t>5.6216%</t>
-  </si>
-  <si>
-    <t>5.1447%</t>
-  </si>
-  <si>
-    <t>5.0211%</t>
+    <t>10.8972%</t>
+  </si>
+  <si>
+    <t>10.8024%</t>
+  </si>
+  <si>
+    <t>10.1111%</t>
+  </si>
+  <si>
+    <t>9.1559%</t>
+  </si>
+  <si>
+    <t>8.7398%</t>
+  </si>
+  <si>
+    <t>8.2855%</t>
+  </si>
+  <si>
+    <t>8.0740%</t>
+  </si>
+  <si>
+    <t>7.5706%</t>
+  </si>
+  <si>
+    <t>7.2624%</t>
+  </si>
+  <si>
+    <t>6.9989%</t>
+  </si>
+  <si>
+    <t>6.3926%</t>
+  </si>
+  <si>
+    <t>5.7097%</t>
   </si>
   <si>
     <t>2022-05-16</t>
@@ -524,7 +506,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -561,25 +543,25 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C2">
         <v>61.12730062857777</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F2">
         <v>49.98</v>
       </c>
       <c r="G2">
-        <v>95829.85906096552</v>
+        <v>108972.0412186664</v>
       </c>
       <c r="H2">
-        <v>1917</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -587,25 +569,25 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C3">
-        <v>60.59526602481479</v>
+        <v>60.5952660248148</v>
       </c>
       <c r="D3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F3">
         <v>39.02</v>
       </c>
       <c r="G3">
-        <v>94995.78327862472</v>
+        <v>108023.5796282668</v>
       </c>
       <c r="H3">
-        <v>2434</v>
+        <v>2768</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -613,25 +595,25 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C4">
-        <v>56.71747083187222</v>
+        <v>56.71747083187223</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F4">
         <v>23.01</v>
       </c>
       <c r="G4">
-        <v>88916.52633474383</v>
+        <v>101110.6086111019</v>
       </c>
       <c r="H4">
-        <v>3864</v>
+        <v>4394</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -639,25 +621,25 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C5">
-        <v>51.35963863147424</v>
+        <v>51.35963863147425</v>
       </c>
       <c r="D5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F5">
         <v>29.45</v>
       </c>
       <c r="G5">
-        <v>80517.00109223048</v>
+        <v>91559.16587797539</v>
       </c>
       <c r="H5">
-        <v>2734</v>
+        <v>3108</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -665,25 +647,25 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C6">
         <v>49.02557498428951</v>
       </c>
       <c r="D6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E6" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F6">
         <v>27.31</v>
       </c>
       <c r="G6">
-        <v>76857.86698931761</v>
+        <v>87398.21524949148</v>
       </c>
       <c r="H6">
-        <v>2814</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -691,25 +673,25 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C7">
         <v>46.47696316220208</v>
       </c>
       <c r="D7" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E7" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F7">
         <v>12.2</v>
       </c>
       <c r="G7">
-        <v>72862.38364226519</v>
+        <v>82854.78817728326</v>
       </c>
       <c r="H7">
-        <v>5972</v>
+        <v>6791</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -717,25 +699,25 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C8">
         <v>45.29050437761089</v>
       </c>
       <c r="D8" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E8" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F8">
         <v>16.19</v>
       </c>
       <c r="G8">
-        <v>71002.36075658484</v>
+        <v>80739.6802917851</v>
       </c>
       <c r="H8">
-        <v>4385</v>
+        <v>4987</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -743,25 +725,25 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C9">
-        <v>44.11144466659669</v>
+        <v>42.4666368738899</v>
       </c>
       <c r="D9" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E9" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F9">
-        <v>13.04</v>
+        <v>39.55</v>
       </c>
       <c r="G9">
-        <v>69153.93746995062</v>
+        <v>75705.55310397873</v>
       </c>
       <c r="H9">
-        <v>5303</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -769,25 +751,25 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C10">
-        <v>42.4666368738899</v>
+        <v>40.73826565018641</v>
       </c>
       <c r="D10" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E10" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F10">
-        <v>39.55</v>
+        <v>16.9</v>
       </c>
       <c r="G10">
-        <v>66575.35642127629</v>
+        <v>72624.37434598006</v>
       </c>
       <c r="H10">
-        <v>1683</v>
+        <v>4297</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -795,25 +777,25 @@
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C11">
-        <v>40.73826565018641</v>
+        <v>39.26010448657095</v>
       </c>
       <c r="D11" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E11" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F11">
-        <v>16.9</v>
+        <v>19.17</v>
       </c>
       <c r="G11">
-        <v>63865.77217545895</v>
+        <v>69989.24670918025</v>
       </c>
       <c r="H11">
-        <v>3779</v>
+        <v>3650</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -821,25 +803,25 @@
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C12">
-        <v>39.26010448657095</v>
+        <v>35.85895389225029</v>
       </c>
       <c r="D12" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E12" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F12">
-        <v>19.17</v>
+        <v>17.26</v>
       </c>
       <c r="G12">
-        <v>61548.44465531587</v>
+        <v>63925.99315562929</v>
       </c>
       <c r="H12">
-        <v>3210</v>
+        <v>3703</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -847,77 +829,25 @@
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C13">
-        <v>35.85895389225028</v>
+        <v>32.02812744503704</v>
       </c>
       <c r="D13" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E13" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F13">
-        <v>17.26</v>
+        <v>20.03</v>
       </c>
       <c r="G13">
-        <v>56216.42804821429</v>
+        <v>57096.75363066135</v>
       </c>
       <c r="H13">
-        <v>3257</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14">
-        <v>32.81696685462727</v>
-      </c>
-      <c r="D14" t="s">
-        <v>48</v>
-      </c>
-      <c r="E14" t="s">
-        <v>50</v>
-      </c>
-      <c r="F14">
-        <v>48.52</v>
-      </c>
-      <c r="G14">
-        <v>51447.47561480009</v>
-      </c>
-      <c r="H14">
-        <v>1060</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15">
-        <v>32.02812744503704</v>
-      </c>
-      <c r="D15" t="s">
-        <v>49</v>
-      </c>
-      <c r="E15" t="s">
-        <v>50</v>
-      </c>
-      <c r="F15">
-        <v>20.03</v>
-      </c>
-      <c r="G15">
-        <v>50210.80446025173</v>
-      </c>
-      <c r="H15">
-        <v>2506</v>
+        <v>2850</v>
       </c>
     </row>
   </sheetData>
